--- a/timflow_coord/240527.xlsx
+++ b/timflow_coord/240527.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hstimbergroup-my.sharepoint.com/personal/cristian_vacaru_hs_ro/Documents/Documents/GitHub/monitoring2/timflow_coord/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_D7CDC12792619218FEFE31D2F8375B062494D86D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB2FD811-6E77-4D47-8C33-D37067C215CE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,11 +49,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +117,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -157,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,9 +203,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,6 +255,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,14 +448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -448,7 +498,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -456,10 +506,10 @@
         <v>2300005700710</v>
       </c>
       <c r="D3">
-        <v>26.27741050720215</v>
+        <v>26.277410507202148</v>
       </c>
       <c r="E3">
-        <v>46.29845809936523</v>
+        <v>46.298458099365227</v>
       </c>
       <c r="F3" s="2">
         <v>45439</v>
@@ -468,7 +518,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -476,10 +526,10 @@
         <v>2300006601720</v>
       </c>
       <c r="D4">
-        <v>26.4412899017334</v>
+        <v>26.441289901733398</v>
       </c>
       <c r="E4">
-        <v>46.1817512512207</v>
+        <v>46.181751251220703</v>
       </c>
       <c r="F4" s="2">
         <v>45439</v>
@@ -488,7 +538,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -496,10 +546,10 @@
         <v>2300006601720</v>
       </c>
       <c r="D5">
-        <v>26.43778991699219</v>
+        <v>26.437789916992191</v>
       </c>
       <c r="E5">
-        <v>46.19001007080078</v>
+        <v>46.190010070800781</v>
       </c>
       <c r="F5" s="2">
         <v>45439</v>
@@ -508,7 +558,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -516,10 +566,10 @@
         <v>2300006601720</v>
       </c>
       <c r="D6">
-        <v>26.43741989135742</v>
+        <v>26.437419891357418</v>
       </c>
       <c r="E6">
-        <v>46.18358993530273</v>
+        <v>46.183589935302727</v>
       </c>
       <c r="F6" s="2">
         <v>45439</v>
@@ -528,7 +578,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -536,10 +586,10 @@
         <v>2300014401060</v>
       </c>
       <c r="D7">
-        <v>25.82286071777344</v>
+        <v>25.822860717773441</v>
       </c>
       <c r="E7">
-        <v>47.66202926635742</v>
+        <v>47.662029266357422</v>
       </c>
       <c r="F7" s="2">
         <v>45439</v>
@@ -548,7 +598,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -556,10 +606,10 @@
         <v>2300014401060</v>
       </c>
       <c r="D8">
-        <v>25.82638931274414</v>
+        <v>25.826389312744141</v>
       </c>
       <c r="E8">
-        <v>47.66107940673828</v>
+        <v>47.661079406738281</v>
       </c>
       <c r="F8" s="2">
         <v>45439</v>
@@ -568,7 +618,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -576,10 +626,10 @@
         <v>2300014401060</v>
       </c>
       <c r="D9">
-        <v>25.8376407623291</v>
+        <v>25.837640762329102</v>
       </c>
       <c r="E9">
-        <v>47.65892028808594</v>
+        <v>47.658920288085938</v>
       </c>
       <c r="F9" s="2">
         <v>45439</v>
@@ -588,7 +638,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -599,7 +649,7 @@
         <v>25.0098991394043</v>
       </c>
       <c r="E10">
-        <v>47.73252105712891</v>
+        <v>47.732521057128913</v>
       </c>
       <c r="F10" s="2">
         <v>45439</v>
@@ -608,7 +658,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -616,10 +666,10 @@
         <v>2300016402800</v>
       </c>
       <c r="D11">
-        <v>25.01651000976562</v>
+        <v>25.016510009765621</v>
       </c>
       <c r="E11">
-        <v>47.73075866699219</v>
+        <v>47.730758666992188</v>
       </c>
       <c r="F11" s="2">
         <v>45439</v>
@@ -628,7 +678,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -636,10 +686,10 @@
         <v>2300016402800</v>
       </c>
       <c r="D12">
-        <v>25.06097030639648</v>
+        <v>25.060970306396481</v>
       </c>
       <c r="E12">
-        <v>47.71401977539062</v>
+        <v>47.714019775390618</v>
       </c>
       <c r="F12" s="2">
         <v>45439</v>
@@ -648,7 +698,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -656,10 +706,10 @@
         <v>2300019609410</v>
       </c>
       <c r="D13">
-        <v>25.0582103729248</v>
+        <v>25.058210372924801</v>
       </c>
       <c r="E13">
-        <v>47.58972930908203</v>
+        <v>47.589729309082031</v>
       </c>
       <c r="F13" s="2">
         <v>45439</v>
@@ -668,7 +718,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -676,10 +726,10 @@
         <v>2300020003690</v>
       </c>
       <c r="D14">
-        <v>25.86944961547852</v>
+        <v>25.869449615478519</v>
       </c>
       <c r="E14">
-        <v>46.67139053344727</v>
+        <v>46.671390533447273</v>
       </c>
       <c r="F14" s="2">
         <v>45439</v>
@@ -688,7 +738,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -696,10 +746,10 @@
         <v>2300020005260</v>
       </c>
       <c r="D15">
-        <v>25.9148006439209</v>
+        <v>25.914800643920898</v>
       </c>
       <c r="E15">
-        <v>46.68777847290039</v>
+        <v>46.687778472900391</v>
       </c>
       <c r="F15" s="2">
         <v>45439</v>
@@ -708,7 +758,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -719,7 +769,7 @@
         <v>26.2894401550293</v>
       </c>
       <c r="E16">
-        <v>47.06827163696289</v>
+        <v>47.068271636962891</v>
       </c>
       <c r="F16" s="2">
         <v>45439</v>
@@ -728,7 +778,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -736,10 +786,10 @@
         <v>2300022006890</v>
       </c>
       <c r="D17">
-        <v>26.3027400970459</v>
+        <v>26.302740097045898</v>
       </c>
       <c r="E17">
-        <v>47.06998825073242</v>
+        <v>47.069988250732422</v>
       </c>
       <c r="F17" s="2">
         <v>45439</v>
@@ -748,7 +798,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -756,10 +806,10 @@
         <v>2300022006890</v>
       </c>
       <c r="D18">
-        <v>26.29542922973633</v>
+        <v>26.295429229736332</v>
       </c>
       <c r="E18">
-        <v>47.06887817382812</v>
+        <v>47.068878173828118</v>
       </c>
       <c r="F18" s="2">
         <v>45439</v>
@@ -768,7 +818,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -776,10 +826,10 @@
         <v>2300022304430</v>
       </c>
       <c r="D19">
-        <v>25.9766902923584</v>
+        <v>25.976690292358398</v>
       </c>
       <c r="E19">
-        <v>47.26084899902344</v>
+        <v>47.260848999023438</v>
       </c>
       <c r="F19" s="2">
         <v>45439</v>
@@ -788,7 +838,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -799,7 +849,7 @@
         <v>25.9592399597168</v>
       </c>
       <c r="E20">
-        <v>47.25754165649414</v>
+        <v>47.257541656494141</v>
       </c>
       <c r="F20" s="2">
         <v>45439</v>
@@ -808,7 +858,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -819,7 +869,7 @@
         <v>25.96067047119141</v>
       </c>
       <c r="E21">
-        <v>47.24898910522461</v>
+        <v>47.248989105224609</v>
       </c>
       <c r="F21" s="2">
         <v>45439</v>
@@ -828,7 +878,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -836,10 +886,10 @@
         <v>2300023200690</v>
       </c>
       <c r="D22">
-        <v>26.10272026062012</v>
+        <v>26.102720260620121</v>
       </c>
       <c r="E22">
-        <v>46.72042846679688</v>
+        <v>46.720428466796882</v>
       </c>
       <c r="F22" s="2">
         <v>45439</v>
@@ -848,7 +898,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -856,10 +906,10 @@
         <v>2300023200790</v>
       </c>
       <c r="D23">
-        <v>26.08297920227051</v>
+        <v>26.082979202270511</v>
       </c>
       <c r="E23">
-        <v>46.82728958129883</v>
+        <v>46.827289581298828</v>
       </c>
       <c r="F23" s="2">
         <v>45439</v>
@@ -868,7 +918,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -879,7 +929,7 @@
         <v>26.07123947143555</v>
       </c>
       <c r="E24">
-        <v>46.83010101318359</v>
+        <v>46.830101013183587</v>
       </c>
       <c r="F24" s="2">
         <v>45439</v>
@@ -888,7 +938,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -896,10 +946,10 @@
         <v>2300023201060</v>
       </c>
       <c r="D25">
-        <v>26.13015937805176</v>
+        <v>26.130159378051761</v>
       </c>
       <c r="E25">
-        <v>46.84732055664062</v>
+        <v>46.847320556640618</v>
       </c>
       <c r="F25" s="2">
         <v>45439</v>
@@ -908,7 +958,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -919,7 +969,7 @@
         <v>26.06863975524902</v>
       </c>
       <c r="E26">
-        <v>46.75027847290039</v>
+        <v>46.750278472900391</v>
       </c>
       <c r="F26" s="2">
         <v>45439</v>
@@ -928,7 +978,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -948,7 +998,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -959,7 +1009,7 @@
         <v>26.22561073303223</v>
       </c>
       <c r="E28">
-        <v>47.15242004394531</v>
+        <v>47.152420043945313</v>
       </c>
       <c r="F28" s="2">
         <v>45439</v>
@@ -968,7 +1018,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -976,10 +1026,10 @@
         <v>2300023800480</v>
       </c>
       <c r="D29">
-        <v>26.22557067871094</v>
+        <v>26.225570678710941</v>
       </c>
       <c r="E29">
-        <v>47.15253067016602</v>
+        <v>47.152530670166023</v>
       </c>
       <c r="F29" s="2">
         <v>45439</v>
@@ -988,7 +1038,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -996,10 +1046,10 @@
         <v>2300023800480</v>
       </c>
       <c r="D30">
-        <v>26.22520065307617</v>
+        <v>26.225200653076168</v>
       </c>
       <c r="E30">
-        <v>47.15224838256836</v>
+        <v>47.152248382568359</v>
       </c>
       <c r="F30" s="2">
         <v>45439</v>
@@ -1008,7 +1058,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1016,10 +1066,10 @@
         <v>2300028800870</v>
       </c>
       <c r="D31">
-        <v>25.4579906463623</v>
+        <v>25.457990646362301</v>
       </c>
       <c r="E31">
-        <v>47.82881164550781</v>
+        <v>47.828811645507813</v>
       </c>
       <c r="F31" s="2">
         <v>45439</v>
@@ -1028,7 +1078,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1039,7 +1089,7 @@
         <v>25.45442962646484</v>
       </c>
       <c r="E32">
-        <v>47.82126998901367</v>
+        <v>47.821269989013672</v>
       </c>
       <c r="F32" s="2">
         <v>45439</v>
@@ -1048,7 +1098,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1109,7 @@
         <v>25.45614051818848</v>
       </c>
       <c r="E33">
-        <v>47.8282585144043</v>
+        <v>47.828258514404297</v>
       </c>
       <c r="F33" s="2">
         <v>45439</v>
@@ -1068,7 +1118,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1076,10 +1126,10 @@
         <v>2300028800870</v>
       </c>
       <c r="D34">
-        <v>25.45476913452148</v>
+        <v>25.454769134521481</v>
       </c>
       <c r="E34">
-        <v>47.82627868652344</v>
+        <v>47.826278686523438</v>
       </c>
       <c r="F34" s="2">
         <v>45439</v>
@@ -1088,7 +1138,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1096,7 +1146,7 @@
         <v>2300028800870</v>
       </c>
       <c r="D35">
-        <v>25.45915031433105</v>
+        <v>25.459150314331051</v>
       </c>
       <c r="E35">
         <v>47.82952880859375</v>
@@ -1108,7 +1158,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1169,7 @@
         <v>25.45421028137207</v>
       </c>
       <c r="E36">
-        <v>47.82152938842773</v>
+        <v>47.821529388427727</v>
       </c>
       <c r="F36" s="2">
         <v>45439</v>
@@ -1128,7 +1178,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1136,10 +1186,10 @@
         <v>2300029401230</v>
       </c>
       <c r="D37">
-        <v>25.75992012023926</v>
+        <v>25.759920120239261</v>
       </c>
       <c r="E37">
-        <v>47.26393890380859</v>
+        <v>47.263938903808587</v>
       </c>
       <c r="F37" s="2">
         <v>45439</v>
@@ -1148,7 +1198,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1156,10 +1206,10 @@
         <v>2300029401230</v>
       </c>
       <c r="D38">
-        <v>25.77408027648926</v>
+        <v>25.774080276489261</v>
       </c>
       <c r="E38">
-        <v>47.27394104003906</v>
+        <v>47.273941040039063</v>
       </c>
       <c r="F38" s="2">
         <v>45439</v>
@@ -1168,7 +1218,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1176,10 +1226,10 @@
         <v>2300029402310</v>
       </c>
       <c r="D39">
-        <v>25.54207038879395</v>
+        <v>25.542070388793949</v>
       </c>
       <c r="E39">
-        <v>47.14496994018555</v>
+        <v>47.144969940185547</v>
       </c>
       <c r="F39" s="2">
         <v>45439</v>
@@ -1188,7 +1238,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1196,10 +1246,10 @@
         <v>2300029402320</v>
       </c>
       <c r="D40">
-        <v>25.55854988098145</v>
+        <v>25.558549880981449</v>
       </c>
       <c r="E40">
-        <v>47.14598846435547</v>
+        <v>47.145988464355469</v>
       </c>
       <c r="F40" s="2">
         <v>45439</v>
@@ -1208,7 +1258,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1216,10 +1266,10 @@
         <v>2300029402320</v>
       </c>
       <c r="D41">
-        <v>25.5615291595459</v>
+        <v>25.561529159545898</v>
       </c>
       <c r="E41">
-        <v>47.14445877075195</v>
+        <v>47.144458770751953</v>
       </c>
       <c r="F41" s="2">
         <v>45439</v>
@@ -1228,7 +1278,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1236,10 +1286,10 @@
         <v>2300029404660</v>
       </c>
       <c r="D42">
-        <v>25.52220916748047</v>
+        <v>25.522209167480469</v>
       </c>
       <c r="E42">
-        <v>47.13442993164062</v>
+        <v>47.134429931640618</v>
       </c>
       <c r="F42" s="2">
         <v>45439</v>
@@ -1248,7 +1298,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1256,10 +1306,10 @@
         <v>2300029404660</v>
       </c>
       <c r="D43">
-        <v>25.52786064147949</v>
+        <v>25.527860641479489</v>
       </c>
       <c r="E43">
-        <v>47.13285064697266</v>
+        <v>47.132850646972663</v>
       </c>
       <c r="F43" s="2">
         <v>45439</v>
@@ -1268,7 +1318,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1276,10 +1326,10 @@
         <v>2300029405050</v>
       </c>
       <c r="D44">
-        <v>25.6348705291748</v>
+        <v>25.634870529174801</v>
       </c>
       <c r="E44">
-        <v>47.15914154052734</v>
+        <v>47.159141540527337</v>
       </c>
       <c r="F44" s="2">
         <v>45439</v>
@@ -1288,7 +1338,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1296,10 +1346,10 @@
         <v>2300029405050</v>
       </c>
       <c r="D45">
-        <v>25.63862037658691</v>
+        <v>25.638620376586911</v>
       </c>
       <c r="E45">
-        <v>47.14780044555664</v>
+        <v>47.147800445556641</v>
       </c>
       <c r="F45" s="2">
         <v>45439</v>
@@ -1308,7 +1358,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1319,7 +1369,7 @@
         <v>25.50193977355957</v>
       </c>
       <c r="E46">
-        <v>47.6696891784668</v>
+        <v>47.669689178466797</v>
       </c>
       <c r="F46" s="2">
         <v>45439</v>
@@ -1328,7 +1378,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1389,7 @@
         <v>25.53141021728516</v>
       </c>
       <c r="E47">
-        <v>47.66984939575195</v>
+        <v>47.669849395751953</v>
       </c>
       <c r="F47" s="2">
         <v>45439</v>
@@ -1348,7 +1398,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1356,10 +1406,10 @@
         <v>2300030501110</v>
       </c>
       <c r="D48">
-        <v>25.67642021179199</v>
+        <v>25.676420211791989</v>
       </c>
       <c r="E48">
-        <v>47.39297866821289</v>
+        <v>47.392978668212891</v>
       </c>
       <c r="F48" s="2">
         <v>45439</v>
@@ -1368,7 +1418,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1376,10 +1426,10 @@
         <v>2300030501110</v>
       </c>
       <c r="D49">
-        <v>25.67518043518066</v>
+        <v>25.675180435180661</v>
       </c>
       <c r="E49">
-        <v>47.39183044433594</v>
+        <v>47.391830444335938</v>
       </c>
       <c r="F49" s="2">
         <v>45439</v>
@@ -1388,7 +1438,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1396,10 +1446,10 @@
         <v>2300030501110</v>
       </c>
       <c r="D50">
-        <v>25.67410087585449</v>
+        <v>25.674100875854489</v>
       </c>
       <c r="E50">
-        <v>47.39139175415039</v>
+        <v>47.391391754150391</v>
       </c>
       <c r="F50" s="2">
         <v>45439</v>
@@ -1408,7 +1458,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1416,10 +1466,10 @@
         <v>2300030501110</v>
       </c>
       <c r="D51">
-        <v>25.67679023742676</v>
+        <v>25.676790237426761</v>
       </c>
       <c r="E51">
-        <v>47.39339065551758</v>
+        <v>47.393390655517578</v>
       </c>
       <c r="F51" s="2">
         <v>45439</v>
@@ -1428,7 +1478,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1436,10 +1486,10 @@
         <v>2300030501110</v>
       </c>
       <c r="D52">
-        <v>25.67923927307129</v>
+        <v>25.679239273071289</v>
       </c>
       <c r="E52">
-        <v>47.39448928833008</v>
+        <v>47.394489288330078</v>
       </c>
       <c r="F52" s="2">
         <v>45439</v>
@@ -1448,7 +1498,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1456,10 +1506,10 @@
         <v>2300071100540</v>
       </c>
       <c r="D53">
-        <v>23.69709968566895</v>
+        <v>23.697099685668949</v>
       </c>
       <c r="E53">
-        <v>45.67906951904297</v>
+        <v>45.679069519042969</v>
       </c>
       <c r="F53" s="2">
         <v>45439</v>
@@ -1468,7 +1518,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1476,10 +1526,10 @@
         <v>2300071100540</v>
       </c>
       <c r="D54">
-        <v>23.70233917236328</v>
+        <v>23.702339172363281</v>
       </c>
       <c r="E54">
-        <v>45.66714096069336</v>
+        <v>45.667140960693359</v>
       </c>
       <c r="F54" s="2">
         <v>45439</v>
@@ -1488,7 +1538,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1496,10 +1546,10 @@
         <v>2300092800360</v>
       </c>
       <c r="D55">
-        <v>25.46368026733398</v>
+        <v>25.463680267333981</v>
       </c>
       <c r="E55">
-        <v>47.67390823364258</v>
+        <v>47.673908233642578</v>
       </c>
       <c r="F55" s="2">
         <v>45439</v>
@@ -1508,7 +1558,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1516,10 +1566,10 @@
         <v>2300092800440</v>
       </c>
       <c r="D56">
-        <v>25.44289970397949</v>
+        <v>25.442899703979489</v>
       </c>
       <c r="E56">
-        <v>47.67208862304688</v>
+        <v>47.672088623046882</v>
       </c>
       <c r="F56" s="2">
         <v>45439</v>
@@ -1528,7 +1578,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1536,7 +1586,7 @@
         <v>2300092800610</v>
       </c>
       <c r="D57">
-        <v>25.44532012939453</v>
+        <v>25.445320129394531</v>
       </c>
       <c r="E57">
         <v>47.68218994140625</v>
@@ -1548,7 +1598,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1559,7 +1609,7 @@
         <v>25.0897102355957</v>
       </c>
       <c r="E58">
-        <v>47.54454040527344</v>
+        <v>47.544540405273438</v>
       </c>
       <c r="F58" s="2">
         <v>45439</v>
@@ -1568,7 +1618,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1576,10 +1626,10 @@
         <v>2300116003520</v>
       </c>
       <c r="D59">
-        <v>25.08975028991699</v>
+        <v>25.089750289916989</v>
       </c>
       <c r="E59">
-        <v>47.54450988769531</v>
+        <v>47.544509887695313</v>
       </c>
       <c r="F59" s="2">
         <v>45439</v>
@@ -1588,7 +1638,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1596,10 +1646,10 @@
         <v>2300125103420</v>
       </c>
       <c r="D60">
-        <v>26.37042045593262</v>
+        <v>26.370420455932621</v>
       </c>
       <c r="E60">
-        <v>46.17097854614258</v>
+        <v>46.170978546142578</v>
       </c>
       <c r="F60" s="2">
         <v>45439</v>
@@ -1608,7 +1658,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +1666,7 @@
         <v>2300126501630</v>
       </c>
       <c r="D61">
-        <v>22.52593040466309</v>
+        <v>22.525930404663089</v>
       </c>
       <c r="E61">
         <v>45.719970703125</v>
@@ -1628,7 +1678,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1636,10 +1686,10 @@
         <v>2300128406430</v>
       </c>
       <c r="D62">
-        <v>25.18800926208496</v>
+        <v>25.188009262084961</v>
       </c>
       <c r="E62">
-        <v>46.60411834716797</v>
+        <v>46.604118347167969</v>
       </c>
       <c r="F62" s="2">
         <v>45439</v>
@@ -1648,7 +1698,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +1709,7 @@
         <v>25.18148040771484</v>
       </c>
       <c r="E63">
-        <v>46.58737945556641</v>
+        <v>46.587379455566413</v>
       </c>
       <c r="F63" s="2">
         <v>45439</v>
@@ -1668,7 +1718,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1676,10 +1726,10 @@
         <v>2300130700590</v>
       </c>
       <c r="D64">
-        <v>25.59390068054199</v>
+        <v>25.593900680541989</v>
       </c>
       <c r="E64">
-        <v>46.97124862670898</v>
+        <v>46.971248626708977</v>
       </c>
       <c r="F64" s="2">
         <v>45439</v>
@@ -1688,7 +1738,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1696,7 +1746,7 @@
         <v>2300130700590</v>
       </c>
       <c r="D65">
-        <v>25.58037948608398</v>
+        <v>25.580379486083981</v>
       </c>
       <c r="E65">
         <v>46.987548828125</v>
@@ -1708,7 +1758,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1716,10 +1766,10 @@
         <v>2300130700590</v>
       </c>
       <c r="D66">
-        <v>25.59231948852539</v>
+        <v>25.592319488525391</v>
       </c>
       <c r="E66">
-        <v>46.98902130126953</v>
+        <v>46.989021301269531</v>
       </c>
       <c r="F66" s="2">
         <v>45439</v>
@@ -1728,7 +1778,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1739,7 +1789,7 @@
         <v>23.57416915893555</v>
       </c>
       <c r="E67">
-        <v>45.49135971069336</v>
+        <v>45.491359710693359</v>
       </c>
       <c r="F67" s="2">
         <v>45439</v>
@@ -1748,7 +1798,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1756,10 +1806,10 @@
         <v>2300138907830</v>
       </c>
       <c r="D68">
-        <v>26.27359008789062</v>
+        <v>26.273590087890621</v>
       </c>
       <c r="E68">
-        <v>45.83790969848633</v>
+        <v>45.837909698486328</v>
       </c>
       <c r="F68" s="2">
         <v>45439</v>
@@ -1768,7 +1818,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1776,10 +1826,10 @@
         <v>2300138907830</v>
       </c>
       <c r="D69">
-        <v>26.27062034606934</v>
+        <v>26.270620346069339</v>
       </c>
       <c r="E69">
-        <v>45.83805847167969</v>
+        <v>45.838058471679688</v>
       </c>
       <c r="F69" s="2">
         <v>45439</v>
@@ -1788,7 +1838,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1796,10 +1846,10 @@
         <v>2300138907830</v>
       </c>
       <c r="D70">
-        <v>26.25246047973633</v>
+        <v>26.252460479736332</v>
       </c>
       <c r="E70">
-        <v>45.83937835693359</v>
+        <v>45.839378356933587</v>
       </c>
       <c r="F70" s="2">
         <v>45439</v>
@@ -1808,7 +1858,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1816,10 +1866,10 @@
         <v>2300139411570</v>
       </c>
       <c r="D71">
-        <v>25.5963191986084</v>
+        <v>25.596319198608398</v>
       </c>
       <c r="E71">
-        <v>46.42713928222656</v>
+        <v>46.427139282226563</v>
       </c>
       <c r="F71" s="2">
         <v>45439</v>
@@ -1828,7 +1878,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -1839,7 +1889,7 @@
         <v>25.59575080871582</v>
       </c>
       <c r="E72">
-        <v>46.42721176147461</v>
+        <v>46.427211761474609</v>
       </c>
       <c r="F72" s="2">
         <v>45439</v>
@@ -1848,7 +1898,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1856,10 +1906,10 @@
         <v>2300139411570</v>
       </c>
       <c r="D73">
-        <v>25.59653091430664</v>
+        <v>25.596530914306641</v>
       </c>
       <c r="E73">
-        <v>46.42726898193359</v>
+        <v>46.427268981933587</v>
       </c>
       <c r="F73" s="2">
         <v>45439</v>
@@ -1868,7 +1918,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -1876,10 +1926,10 @@
         <v>2300139413570</v>
       </c>
       <c r="D74">
-        <v>26.1213207244873</v>
+        <v>26.121320724487301</v>
       </c>
       <c r="E74">
-        <v>46.24227142333984</v>
+        <v>46.242271423339837</v>
       </c>
       <c r="F74" s="2">
         <v>45439</v>
@@ -1888,7 +1938,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -1899,7 +1949,7 @@
         <v>26.11848068237305</v>
       </c>
       <c r="E75">
-        <v>46.23561859130859</v>
+        <v>46.235618591308587</v>
       </c>
       <c r="F75" s="2">
         <v>45439</v>
@@ -1908,7 +1958,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -1919,7 +1969,7 @@
         <v>25.8780403137207</v>
       </c>
       <c r="E76">
-        <v>46.17631149291992</v>
+        <v>46.176311492919922</v>
       </c>
       <c r="F76" s="2">
         <v>45439</v>
@@ -1928,7 +1978,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1936,10 +1986,10 @@
         <v>2300139416330</v>
       </c>
       <c r="D77">
-        <v>25.8775806427002</v>
+        <v>25.877580642700199</v>
       </c>
       <c r="E77">
-        <v>46.17684936523438</v>
+        <v>46.176849365234382</v>
       </c>
       <c r="F77" s="2">
         <v>45439</v>
@@ -1948,7 +1998,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -1956,10 +2006,10 @@
         <v>2300139416330</v>
       </c>
       <c r="D78">
-        <v>25.87668991088867</v>
+        <v>25.876689910888668</v>
       </c>
       <c r="E78">
-        <v>46.1721305847168</v>
+        <v>46.172130584716797</v>
       </c>
       <c r="F78" s="2">
         <v>45439</v>
@@ -1968,7 +2018,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -1976,10 +2026,10 @@
         <v>2300139416380</v>
       </c>
       <c r="D79">
-        <v>25.87702941894531</v>
+        <v>25.877029418945309</v>
       </c>
       <c r="E79">
-        <v>46.17237091064453</v>
+        <v>46.172370910644531</v>
       </c>
       <c r="F79" s="2">
         <v>45439</v>
@@ -1988,7 +2038,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -1996,10 +2046,10 @@
         <v>2300140803500</v>
       </c>
       <c r="D80">
-        <v>23.3582592010498</v>
+        <v>23.358259201049801</v>
       </c>
       <c r="E80">
-        <v>45.58509063720703</v>
+        <v>45.585090637207031</v>
       </c>
       <c r="F80" s="2">
         <v>45439</v>
@@ -2008,7 +2058,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2019,7 +2069,7 @@
         <v>25.27190017700195</v>
       </c>
       <c r="E81">
-        <v>47.23971939086914</v>
+        <v>47.239719390869141</v>
       </c>
       <c r="F81" s="2">
         <v>45439</v>
@@ -2028,7 +2078,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2036,10 +2086,10 @@
         <v>2300153001550</v>
       </c>
       <c r="D82">
-        <v>24.64866065979004</v>
+        <v>24.648660659790039</v>
       </c>
       <c r="E82">
-        <v>47.79862976074219</v>
+        <v>47.798629760742188</v>
       </c>
       <c r="F82" s="2">
         <v>45439</v>
@@ -2048,7 +2098,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2056,10 +2106,10 @@
         <v>2300153001610</v>
       </c>
       <c r="D83">
-        <v>24.64866065979004</v>
+        <v>24.648660659790039</v>
       </c>
       <c r="E83">
-        <v>47.79862976074219</v>
+        <v>47.798629760742188</v>
       </c>
       <c r="F83" s="2">
         <v>45439</v>
@@ -2068,7 +2118,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2076,10 +2126,10 @@
         <v>2300157302330</v>
       </c>
       <c r="D84">
-        <v>25.06714057922363</v>
+        <v>25.067140579223629</v>
       </c>
       <c r="E84">
-        <v>47.07543182373047</v>
+        <v>47.075431823730469</v>
       </c>
       <c r="F84" s="2">
         <v>45439</v>
@@ -2088,7 +2138,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2099,7 +2149,7 @@
         <v>25.06967926025391</v>
       </c>
       <c r="E85">
-        <v>47.07466125488281</v>
+        <v>47.074661254882813</v>
       </c>
       <c r="F85" s="2">
         <v>45439</v>
@@ -2108,7 +2158,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2116,10 +2166,10 @@
         <v>2300159001940</v>
       </c>
       <c r="D86">
-        <v>23.43914985656738</v>
+        <v>23.439149856567379</v>
       </c>
       <c r="E86">
-        <v>45.54803848266602</v>
+        <v>45.548038482666023</v>
       </c>
       <c r="F86" s="2">
         <v>45439</v>
@@ -2128,7 +2178,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2136,10 +2186,10 @@
         <v>2300159001940</v>
       </c>
       <c r="D87">
-        <v>23.43683052062988</v>
+        <v>23.436830520629879</v>
       </c>
       <c r="E87">
-        <v>45.54346084594727</v>
+        <v>45.543460845947273</v>
       </c>
       <c r="F87" s="2">
         <v>45439</v>
@@ -2148,7 +2198,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2156,10 +2206,10 @@
         <v>2300159001940</v>
       </c>
       <c r="D88">
-        <v>23.43548965454102</v>
+        <v>23.435489654541019</v>
       </c>
       <c r="E88">
-        <v>45.5300407409668</v>
+        <v>45.530040740966797</v>
       </c>
       <c r="F88" s="2">
         <v>45439</v>
@@ -2168,7 +2218,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2176,10 +2226,10 @@
         <v>2300159002370</v>
       </c>
       <c r="D89">
-        <v>23.43683052062988</v>
+        <v>23.436830520629879</v>
       </c>
       <c r="E89">
-        <v>45.54346084594727</v>
+        <v>45.543460845947273</v>
       </c>
       <c r="F89" s="2">
         <v>45439</v>
@@ -2188,7 +2238,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -2199,7 +2249,7 @@
         <v>23.43927001953125</v>
       </c>
       <c r="E90">
-        <v>45.54790115356445</v>
+        <v>45.547901153564453</v>
       </c>
       <c r="F90" s="2">
         <v>45439</v>
@@ -2208,7 +2258,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -2216,10 +2266,10 @@
         <v>2300159002370</v>
       </c>
       <c r="D91">
-        <v>23.43548965454102</v>
+        <v>23.435489654541019</v>
       </c>
       <c r="E91">
-        <v>45.5300407409668</v>
+        <v>45.530040740966797</v>
       </c>
       <c r="F91" s="2">
         <v>45439</v>
@@ -2228,7 +2278,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2236,10 +2286,10 @@
         <v>2300164901190</v>
       </c>
       <c r="D92">
-        <v>25.22547912597656</v>
+        <v>25.225479125976559</v>
       </c>
       <c r="E92">
-        <v>46.90092086791992</v>
+        <v>46.900920867919922</v>
       </c>
       <c r="F92" s="2">
         <v>45439</v>
@@ -2248,7 +2298,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2259,7 +2309,7 @@
         <v>25.22537994384766</v>
       </c>
       <c r="E93">
-        <v>46.90071868896484</v>
+        <v>46.900718688964837</v>
       </c>
       <c r="F93" s="2">
         <v>45439</v>
@@ -2268,7 +2318,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -2276,10 +2326,10 @@
         <v>2300182122130</v>
       </c>
       <c r="D94">
-        <v>24.87821960449219</v>
+        <v>24.878219604492191</v>
       </c>
       <c r="E94">
-        <v>45.51369094848633</v>
+        <v>45.513690948486328</v>
       </c>
       <c r="F94" s="2">
         <v>45439</v>
@@ -2288,7 +2338,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -2296,10 +2346,10 @@
         <v>2300182122220</v>
       </c>
       <c r="D95">
-        <v>24.87822914123535</v>
+        <v>24.878229141235352</v>
       </c>
       <c r="E95">
-        <v>45.51369094848633</v>
+        <v>45.513690948486328</v>
       </c>
       <c r="F95" s="2">
         <v>45439</v>
@@ -2308,7 +2358,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -2319,7 +2369,7 @@
         <v>26.40535926818848</v>
       </c>
       <c r="E96">
-        <v>45.73764038085938</v>
+        <v>45.737640380859382</v>
       </c>
       <c r="F96" s="2">
         <v>45439</v>
@@ -2328,7 +2378,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -2339,7 +2389,7 @@
         <v>26.40535926818848</v>
       </c>
       <c r="E97">
-        <v>45.73764038085938</v>
+        <v>45.737640380859382</v>
       </c>
       <c r="F97" s="2">
         <v>45439</v>
@@ -2348,7 +2398,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2356,10 +2406,10 @@
         <v>2300191300820</v>
       </c>
       <c r="D98">
-        <v>22.77536964416504</v>
+        <v>22.775369644165039</v>
       </c>
       <c r="E98">
-        <v>46.60301971435547</v>
+        <v>46.603019714355469</v>
       </c>
       <c r="F98" s="2">
         <v>45439</v>
@@ -2368,7 +2418,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -2376,10 +2426,10 @@
         <v>2300191300820</v>
       </c>
       <c r="D99">
-        <v>22.76810073852539</v>
+        <v>22.768100738525391</v>
       </c>
       <c r="E99">
-        <v>46.59706878662109</v>
+        <v>46.597068786621087</v>
       </c>
       <c r="F99" s="2">
         <v>45439</v>
@@ -2388,7 +2438,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -2396,10 +2446,10 @@
         <v>2300191300820</v>
       </c>
       <c r="D100">
-        <v>22.77713966369629</v>
+        <v>22.777139663696289</v>
       </c>
       <c r="E100">
-        <v>46.60451889038086</v>
+        <v>46.604518890380859</v>
       </c>
       <c r="F100" s="2">
         <v>45439</v>
@@ -2408,7 +2458,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -2428,7 +2478,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -2436,10 +2486,10 @@
         <v>2300191301180</v>
       </c>
       <c r="D102">
-        <v>22.79088973999023</v>
+        <v>22.790889739990231</v>
       </c>
       <c r="E102">
-        <v>46.58752059936523</v>
+        <v>46.587520599365227</v>
       </c>
       <c r="F102" s="2">
         <v>45439</v>
@@ -2448,7 +2498,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -2456,10 +2506,10 @@
         <v>2300191301190</v>
       </c>
       <c r="D103">
-        <v>22.79017066955566</v>
+        <v>22.790170669555661</v>
       </c>
       <c r="E103">
-        <v>46.58732986450195</v>
+        <v>46.587329864501953</v>
       </c>
       <c r="F103" s="2">
         <v>45439</v>
@@ -2468,7 +2518,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -2476,10 +2526,10 @@
         <v>2300191301190</v>
       </c>
       <c r="D104">
-        <v>22.77075958251953</v>
+        <v>22.770759582519531</v>
       </c>
       <c r="E104">
-        <v>46.58071899414062</v>
+        <v>46.580718994140618</v>
       </c>
       <c r="F104" s="2">
         <v>45439</v>
@@ -2488,7 +2538,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -2496,10 +2546,10 @@
         <v>2300191301810</v>
       </c>
       <c r="D105">
-        <v>22.7751407623291</v>
+        <v>22.775140762329102</v>
       </c>
       <c r="E105">
-        <v>46.60340881347656</v>
+        <v>46.603408813476563</v>
       </c>
       <c r="F105" s="2">
         <v>45439</v>
@@ -2508,7 +2558,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -2516,10 +2566,10 @@
         <v>2300191301810</v>
       </c>
       <c r="D106">
-        <v>22.76810073852539</v>
+        <v>22.768100738525391</v>
       </c>
       <c r="E106">
-        <v>46.5971794128418</v>
+        <v>46.597179412841797</v>
       </c>
       <c r="F106" s="2">
         <v>45439</v>
@@ -2528,7 +2578,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -2536,10 +2586,10 @@
         <v>2300191301810</v>
       </c>
       <c r="D107">
-        <v>22.77316093444824</v>
+        <v>22.773160934448239</v>
       </c>
       <c r="E107">
-        <v>46.59957885742188</v>
+        <v>46.599578857421882</v>
       </c>
       <c r="F107" s="2">
         <v>45439</v>
@@ -2548,7 +2598,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -2556,10 +2606,10 @@
         <v>2300191301810</v>
       </c>
       <c r="D108">
-        <v>22.7767391204834</v>
+        <v>22.776739120483398</v>
       </c>
       <c r="E108">
-        <v>46.60393905639648</v>
+        <v>46.603939056396477</v>
       </c>
       <c r="F108" s="2">
         <v>45439</v>
@@ -2568,7 +2618,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -2579,7 +2629,7 @@
         <v>26.22974967956543</v>
       </c>
       <c r="E109">
-        <v>45.43962097167969</v>
+        <v>45.439620971679688</v>
       </c>
       <c r="F109" s="2">
         <v>45439</v>
@@ -2588,7 +2638,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -2596,10 +2646,10 @@
         <v>2300207102230</v>
       </c>
       <c r="D110">
-        <v>26.22442054748535</v>
+        <v>26.224420547485352</v>
       </c>
       <c r="E110">
-        <v>45.42927169799805</v>
+        <v>45.429271697998047</v>
       </c>
       <c r="F110" s="2">
         <v>45439</v>
@@ -2608,7 +2658,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -2619,7 +2669,7 @@
         <v>23.57975006103516</v>
       </c>
       <c r="E111">
-        <v>45.55500030517578</v>
+        <v>45.555000305175781</v>
       </c>
       <c r="F111" s="2">
         <v>45439</v>
@@ -2628,7 +2678,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -2636,10 +2686,10 @@
         <v>2300295001400</v>
       </c>
       <c r="D112">
-        <v>23.5957202911377</v>
+        <v>23.595720291137699</v>
       </c>
       <c r="E112">
-        <v>45.54537963867188</v>
+        <v>45.545379638671882</v>
       </c>
       <c r="F112" s="2">
         <v>45439</v>
@@ -2648,7 +2698,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2656,10 +2706,10 @@
         <v>2300295001400</v>
       </c>
       <c r="D113">
-        <v>23.58752059936523</v>
+        <v>23.587520599365231</v>
       </c>
       <c r="E113">
-        <v>45.55012130737305</v>
+        <v>45.550121307373047</v>
       </c>
       <c r="F113" s="2">
         <v>45439</v>
@@ -2668,7 +2718,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -2676,10 +2726,10 @@
         <v>2300295001400</v>
       </c>
       <c r="D114">
-        <v>23.58526992797852</v>
+        <v>23.585269927978519</v>
       </c>
       <c r="E114">
-        <v>45.55271148681641</v>
+        <v>45.552711486816413</v>
       </c>
       <c r="F114" s="2">
         <v>45439</v>
@@ -2688,7 +2738,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -2696,10 +2746,10 @@
         <v>2300295001400</v>
       </c>
       <c r="D115">
-        <v>23.59979057312012</v>
+        <v>23.599790573120121</v>
       </c>
       <c r="E115">
-        <v>45.54560852050781</v>
+        <v>45.545608520507813</v>
       </c>
       <c r="F115" s="2">
         <v>45439</v>
@@ -2708,7 +2758,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -2716,10 +2766,10 @@
         <v>2300295001400</v>
       </c>
       <c r="D116">
-        <v>23.57951927185059</v>
+        <v>23.579519271850589</v>
       </c>
       <c r="E116">
-        <v>45.55504989624023</v>
+        <v>45.555049896240227</v>
       </c>
       <c r="F116" s="2">
         <v>45439</v>
@@ -2728,7 +2778,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -2736,10 +2786,10 @@
         <v>2300295001560</v>
       </c>
       <c r="D117">
-        <v>23.56911087036133</v>
+        <v>23.569110870361332</v>
       </c>
       <c r="E117">
-        <v>45.58245086669922</v>
+        <v>45.582450866699219</v>
       </c>
       <c r="F117" s="2">
         <v>45439</v>
@@ -2748,7 +2798,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -2756,7 +2806,7 @@
         <v>2300295001560</v>
       </c>
       <c r="D118">
-        <v>23.57341003417969</v>
+        <v>23.573410034179691</v>
       </c>
       <c r="E118">
         <v>45.58245849609375</v>
@@ -2768,7 +2818,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -2779,7 +2829,7 @@
         <v>23.57357025146484</v>
       </c>
       <c r="E119">
-        <v>45.58279037475586</v>
+        <v>45.582790374755859</v>
       </c>
       <c r="F119" s="2">
         <v>45439</v>
@@ -2788,7 +2838,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -2796,10 +2846,10 @@
         <v>2300295001560</v>
       </c>
       <c r="D120">
-        <v>23.57357978820801</v>
+        <v>23.573579788208011</v>
       </c>
       <c r="E120">
-        <v>45.58248901367188</v>
+        <v>45.582489013671882</v>
       </c>
       <c r="F120" s="2">
         <v>45439</v>
@@ -2808,7 +2858,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -2819,7 +2869,7 @@
         <v>23.59757041931152</v>
       </c>
       <c r="E121">
-        <v>45.56856918334961</v>
+        <v>45.568569183349609</v>
       </c>
       <c r="F121" s="2">
         <v>45439</v>
@@ -2828,7 +2878,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -2836,10 +2886,10 @@
         <v>2300295001620</v>
       </c>
       <c r="D122">
-        <v>23.59536933898926</v>
+        <v>23.595369338989261</v>
       </c>
       <c r="E122">
-        <v>45.56826019287109</v>
+        <v>45.568260192871087</v>
       </c>
       <c r="F122" s="2">
         <v>45439</v>
@@ -2848,7 +2898,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -2856,10 +2906,10 @@
         <v>2300295001620</v>
       </c>
       <c r="D123">
-        <v>23.59514999389648</v>
+        <v>23.595149993896481</v>
       </c>
       <c r="E123">
-        <v>45.56832122802734</v>
+        <v>45.568321228027337</v>
       </c>
       <c r="F123" s="2">
         <v>45439</v>
@@ -2868,7 +2918,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -2879,7 +2929,7 @@
         <v>23.59514045715332</v>
       </c>
       <c r="E124">
-        <v>45.56898880004883</v>
+        <v>45.568988800048828</v>
       </c>
       <c r="F124" s="2">
         <v>45439</v>
@@ -2888,7 +2938,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -2896,10 +2946,10 @@
         <v>2300295001620</v>
       </c>
       <c r="D125">
-        <v>23.59387969970703</v>
+        <v>23.593879699707031</v>
       </c>
       <c r="E125">
-        <v>45.56996154785156</v>
+        <v>45.569961547851563</v>
       </c>
       <c r="F125" s="2">
         <v>45439</v>
@@ -2908,7 +2958,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -2916,10 +2966,10 @@
         <v>2300295001620</v>
       </c>
       <c r="D126">
-        <v>23.59339904785156</v>
+        <v>23.593399047851559</v>
       </c>
       <c r="E126">
-        <v>45.57176971435547</v>
+        <v>45.571769714355469</v>
       </c>
       <c r="F126" s="2">
         <v>45439</v>
@@ -2928,7 +2978,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -2936,10 +2986,10 @@
         <v>2300295001620</v>
       </c>
       <c r="D127">
-        <v>23.59366989135742</v>
+        <v>23.593669891357418</v>
       </c>
       <c r="E127">
-        <v>45.57202911376953</v>
+        <v>45.572029113769531</v>
       </c>
       <c r="F127" s="2">
         <v>45439</v>
@@ -2948,7 +2998,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -2956,10 +3006,10 @@
         <v>2300295001620</v>
       </c>
       <c r="D128">
-        <v>23.59325981140137</v>
+        <v>23.593259811401371</v>
       </c>
       <c r="E128">
-        <v>45.57199096679688</v>
+        <v>45.571990966796882</v>
       </c>
       <c r="F128" s="2">
         <v>45439</v>
@@ -2968,7 +3018,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2976,7 +3026,7 @@
         <v>2300295001660</v>
       </c>
       <c r="D129">
-        <v>23.59461975097656</v>
+        <v>23.594619750976559</v>
       </c>
       <c r="E129">
         <v>45.5726318359375</v>
@@ -2988,7 +3038,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -2999,7 +3049,7 @@
         <v>23.59309005737305</v>
       </c>
       <c r="E130">
-        <v>45.57202911376953</v>
+        <v>45.572029113769531</v>
       </c>
       <c r="F130" s="2">
         <v>45439</v>
@@ -3008,7 +3058,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -3016,10 +3066,10 @@
         <v>2300295001660</v>
       </c>
       <c r="D131">
-        <v>23.59283065795898</v>
+        <v>23.592830657958981</v>
       </c>
       <c r="E131">
-        <v>45.57194900512695</v>
+        <v>45.571949005126953</v>
       </c>
       <c r="F131" s="2">
         <v>45439</v>
@@ -3028,7 +3078,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -3036,10 +3086,10 @@
         <v>2300295001660</v>
       </c>
       <c r="D132">
-        <v>23.58897972106934</v>
+        <v>23.588979721069339</v>
       </c>
       <c r="E132">
-        <v>45.57434844970703</v>
+        <v>45.574348449707031</v>
       </c>
       <c r="F132" s="2">
         <v>45439</v>
@@ -3048,7 +3098,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -3059,7 +3109,7 @@
         <v>23.58562088012695</v>
       </c>
       <c r="E133">
-        <v>45.57609939575195</v>
+        <v>45.576099395751953</v>
       </c>
       <c r="F133" s="2">
         <v>45439</v>
@@ -3068,7 +3118,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3076,10 +3126,10 @@
         <v>2300295001660</v>
       </c>
       <c r="D134">
-        <v>23.58733940124512</v>
+        <v>23.587339401245121</v>
       </c>
       <c r="E134">
-        <v>45.57596969604492</v>
+        <v>45.575969696044922</v>
       </c>
       <c r="F134" s="2">
         <v>45439</v>
@@ -3088,7 +3138,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -3096,10 +3146,10 @@
         <v>2300295001660</v>
       </c>
       <c r="D135">
-        <v>23.59251022338867</v>
+        <v>23.592510223388668</v>
       </c>
       <c r="E135">
-        <v>45.57249069213867</v>
+        <v>45.572490692138672</v>
       </c>
       <c r="F135" s="2">
         <v>45439</v>
@@ -3108,7 +3158,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -3116,10 +3166,10 @@
         <v>2300295001660</v>
       </c>
       <c r="D136">
-        <v>23.58839988708496</v>
+        <v>23.588399887084961</v>
       </c>
       <c r="E136">
-        <v>45.57535934448242</v>
+        <v>45.575359344482422</v>
       </c>
       <c r="F136" s="2">
         <v>45439</v>
@@ -3128,7 +3178,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -3139,7 +3189,7 @@
         <v>23.58992958068848</v>
       </c>
       <c r="E137">
-        <v>45.57324981689453</v>
+        <v>45.573249816894531</v>
       </c>
       <c r="F137" s="2">
         <v>45439</v>
@@ -3148,7 +3198,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -3156,10 +3206,10 @@
         <v>2300295001660</v>
       </c>
       <c r="D138">
-        <v>23.58712959289551</v>
+        <v>23.587129592895511</v>
       </c>
       <c r="E138">
-        <v>45.57706832885742</v>
+        <v>45.577068328857422</v>
       </c>
       <c r="F138" s="2">
         <v>45439</v>
@@ -3168,7 +3218,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -3176,10 +3226,10 @@
         <v>2400005600300</v>
       </c>
       <c r="D139">
-        <v>26.2118091583252</v>
+        <v>26.211809158325199</v>
       </c>
       <c r="E139">
-        <v>46.62052917480469</v>
+        <v>46.620529174804688</v>
       </c>
       <c r="F139" s="2">
         <v>45439</v>
@@ -3188,7 +3238,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -3196,10 +3246,10 @@
         <v>2400005600520</v>
       </c>
       <c r="D140">
-        <v>26.21203994750977</v>
+        <v>26.212039947509769</v>
       </c>
       <c r="E140">
-        <v>46.62055969238281</v>
+        <v>46.620559692382813</v>
       </c>
       <c r="F140" s="2">
         <v>45439</v>
@@ -3208,7 +3258,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -3216,10 +3266,10 @@
         <v>2400005600600</v>
       </c>
       <c r="D141">
-        <v>26.29346084594727</v>
+        <v>26.293460845947269</v>
       </c>
       <c r="E141">
-        <v>46.62273025512695</v>
+        <v>46.622730255126953</v>
       </c>
       <c r="F141" s="2">
         <v>45439</v>
@@ -3228,7 +3278,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -3239,7 +3289,7 @@
         <v>26.74308013916016</v>
       </c>
       <c r="E142">
-        <v>46.63022994995117</v>
+        <v>46.630229949951172</v>
       </c>
       <c r="F142" s="2">
         <v>45439</v>
@@ -3248,7 +3298,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3256,10 +3306,10 @@
         <v>2400005800270</v>
       </c>
       <c r="D143">
-        <v>26.74295043945312</v>
+        <v>26.742950439453121</v>
       </c>
       <c r="E143">
-        <v>46.62987899780273</v>
+        <v>46.629878997802727</v>
       </c>
       <c r="F143" s="2">
         <v>45439</v>
@@ -3268,7 +3318,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -3279,7 +3329,7 @@
         <v>26.53606033325195</v>
       </c>
       <c r="E144">
-        <v>46.04190826416016</v>
+        <v>46.041908264160163</v>
       </c>
       <c r="F144" s="2">
         <v>45439</v>
@@ -3288,7 +3338,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -3296,10 +3346,10 @@
         <v>2400006100270</v>
       </c>
       <c r="D145">
-        <v>26.54928970336914</v>
+        <v>26.549289703369141</v>
       </c>
       <c r="E145">
-        <v>46.06875991821289</v>
+        <v>46.068759918212891</v>
       </c>
       <c r="F145" s="2">
         <v>45439</v>
@@ -3308,7 +3358,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -3316,10 +3366,10 @@
         <v>2400006100280</v>
       </c>
       <c r="D146">
-        <v>26.53907012939453</v>
+        <v>26.539070129394531</v>
       </c>
       <c r="E146">
-        <v>46.05142974853516</v>
+        <v>46.051429748535163</v>
       </c>
       <c r="F146" s="2">
         <v>45439</v>
@@ -3328,7 +3378,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -3336,10 +3386,10 @@
         <v>2400006100280</v>
       </c>
       <c r="D147">
-        <v>26.54928970336914</v>
+        <v>26.549289703369141</v>
       </c>
       <c r="E147">
-        <v>46.06875991821289</v>
+        <v>46.068759918212891</v>
       </c>
       <c r="F147" s="2">
         <v>45439</v>
@@ -3348,7 +3398,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -3356,10 +3406,10 @@
         <v>2400006100290</v>
       </c>
       <c r="D148">
-        <v>26.54928970336914</v>
+        <v>26.549289703369141</v>
       </c>
       <c r="E148">
-        <v>46.06875991821289</v>
+        <v>46.068759918212891</v>
       </c>
       <c r="F148" s="2">
         <v>45439</v>
@@ -3368,7 +3418,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -3376,10 +3426,10 @@
         <v>2400006100290</v>
       </c>
       <c r="D149">
-        <v>26.53640937805176</v>
+        <v>26.536409378051761</v>
       </c>
       <c r="E149">
-        <v>46.04829025268555</v>
+        <v>46.048290252685547</v>
       </c>
       <c r="F149" s="2">
         <v>45439</v>
@@ -3388,7 +3438,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -3396,10 +3446,10 @@
         <v>2400006300140</v>
       </c>
       <c r="D150">
-        <v>26.59400939941406</v>
+        <v>26.594009399414059</v>
       </c>
       <c r="E150">
-        <v>46.08695983886719</v>
+        <v>46.086959838867188</v>
       </c>
       <c r="F150" s="2">
         <v>45439</v>
@@ -3408,7 +3458,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -3416,10 +3466,10 @@
         <v>2400006300140</v>
       </c>
       <c r="D151">
-        <v>26.58929061889648</v>
+        <v>26.589290618896481</v>
       </c>
       <c r="E151">
-        <v>46.08710861206055</v>
+        <v>46.087108612060547</v>
       </c>
       <c r="F151" s="2">
         <v>45439</v>
@@ -3428,7 +3478,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -3436,10 +3486,10 @@
         <v>2400006300140</v>
       </c>
       <c r="D152">
-        <v>26.60025978088379</v>
+        <v>26.600259780883789</v>
       </c>
       <c r="E152">
-        <v>46.08922958374023</v>
+        <v>46.089229583740227</v>
       </c>
       <c r="F152" s="2">
         <v>45439</v>
@@ -3448,7 +3498,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -3456,10 +3506,10 @@
         <v>2400006300140</v>
       </c>
       <c r="D153">
-        <v>26.58465003967285</v>
+        <v>26.584650039672852</v>
       </c>
       <c r="E153">
-        <v>46.08633041381836</v>
+        <v>46.086330413818359</v>
       </c>
       <c r="F153" s="2">
         <v>45439</v>
@@ -3468,7 +3518,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -3479,7 +3529,7 @@
         <v>26.5794792175293</v>
       </c>
       <c r="E154">
-        <v>46.08794021606445</v>
+        <v>46.087940216064453</v>
       </c>
       <c r="F154" s="2">
         <v>45439</v>
@@ -3488,7 +3538,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3496,10 +3546,10 @@
         <v>2400006300140</v>
       </c>
       <c r="D155">
-        <v>26.59795951843262</v>
+        <v>26.597959518432621</v>
       </c>
       <c r="E155">
-        <v>46.0878791809082</v>
+        <v>46.087879180908203</v>
       </c>
       <c r="F155" s="2">
         <v>45439</v>
@@ -3508,7 +3558,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -3516,10 +3566,10 @@
         <v>2400006900270</v>
       </c>
       <c r="D156">
-        <v>26.1211109161377</v>
+        <v>26.121110916137699</v>
       </c>
       <c r="E156">
-        <v>46.63763046264648</v>
+        <v>46.637630462646477</v>
       </c>
       <c r="F156" s="2">
         <v>45439</v>
@@ -3528,7 +3578,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -3536,10 +3586,10 @@
         <v>2400006900270</v>
       </c>
       <c r="D157">
-        <v>26.12458992004395</v>
+        <v>26.124589920043949</v>
       </c>
       <c r="E157">
-        <v>46.63647079467773</v>
+        <v>46.636470794677727</v>
       </c>
       <c r="F157" s="2">
         <v>45439</v>
@@ -3548,7 +3598,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -3559,7 +3609,7 @@
         <v>25.69706916809082</v>
       </c>
       <c r="E158">
-        <v>47.81364822387695</v>
+        <v>47.813648223876953</v>
       </c>
       <c r="F158" s="2">
         <v>45439</v>
@@ -3568,7 +3618,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -3576,10 +3626,10 @@
         <v>2400008700360</v>
       </c>
       <c r="D159">
-        <v>25.70306015014648</v>
+        <v>25.703060150146481</v>
       </c>
       <c r="E159">
-        <v>47.81367111206055</v>
+        <v>47.813671112060547</v>
       </c>
       <c r="F159" s="2">
         <v>45439</v>
@@ -3588,7 +3638,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -3596,10 +3646,10 @@
         <v>2400008700360</v>
       </c>
       <c r="D160">
-        <v>25.70566940307617</v>
+        <v>25.705669403076168</v>
       </c>
       <c r="E160">
-        <v>47.81150054931641</v>
+        <v>47.811500549316413</v>
       </c>
       <c r="F160" s="2">
         <v>45439</v>
@@ -3608,7 +3658,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -3616,10 +3666,10 @@
         <v>2400008700360</v>
       </c>
       <c r="D161">
-        <v>25.70586967468262</v>
+        <v>25.705869674682621</v>
       </c>
       <c r="E161">
-        <v>47.81158065795898</v>
+        <v>47.811580657958977</v>
       </c>
       <c r="F161" s="2">
         <v>45439</v>
@@ -3628,7 +3678,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -3636,10 +3686,10 @@
         <v>2400008700360</v>
       </c>
       <c r="D162">
-        <v>25.71257972717285</v>
+        <v>25.712579727172852</v>
       </c>
       <c r="E162">
-        <v>47.81015014648438</v>
+        <v>47.810150146484382</v>
       </c>
       <c r="F162" s="2">
         <v>45439</v>
@@ -3648,7 +3698,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -3656,10 +3706,10 @@
         <v>2400010501320</v>
       </c>
       <c r="D163">
-        <v>25.37785911560059</v>
+        <v>25.377859115600589</v>
       </c>
       <c r="E163">
-        <v>45.37479019165039</v>
+        <v>45.374790191650391</v>
       </c>
       <c r="F163" s="2">
         <v>45439</v>
@@ -3668,7 +3718,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -3676,10 +3726,10 @@
         <v>2400010501520</v>
       </c>
       <c r="D164">
-        <v>25.37785911560059</v>
+        <v>25.377859115600589</v>
       </c>
       <c r="E164">
-        <v>45.37479019165039</v>
+        <v>45.374790191650391</v>
       </c>
       <c r="F164" s="2">
         <v>45439</v>
@@ -3688,7 +3738,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -3696,10 +3746,10 @@
         <v>2400010501530</v>
       </c>
       <c r="D165">
-        <v>25.37785911560059</v>
+        <v>25.377859115600589</v>
       </c>
       <c r="E165">
-        <v>45.37479019165039</v>
+        <v>45.374790191650391</v>
       </c>
       <c r="F165" s="2">
         <v>45439</v>
@@ -3708,7 +3758,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -3716,10 +3766,10 @@
         <v>2400014400300</v>
       </c>
       <c r="D166">
-        <v>25.9337100982666</v>
+        <v>25.933710098266602</v>
       </c>
       <c r="E166">
-        <v>47.59479141235352</v>
+        <v>47.594791412353523</v>
       </c>
       <c r="F166" s="2">
         <v>45439</v>
@@ -3728,7 +3778,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -3739,7 +3789,7 @@
         <v>25.91555023193359</v>
       </c>
       <c r="E167">
-        <v>47.59489822387695</v>
+        <v>47.594898223876953</v>
       </c>
       <c r="F167" s="2">
         <v>45439</v>
@@ -3748,7 +3798,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -3756,10 +3806,10 @@
         <v>2400014400300</v>
       </c>
       <c r="D168">
-        <v>25.91744995117188</v>
+        <v>25.917449951171879</v>
       </c>
       <c r="E168">
-        <v>47.59975814819336</v>
+        <v>47.599758148193359</v>
       </c>
       <c r="F168" s="2">
         <v>45439</v>
@@ -3768,7 +3818,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -3779,7 +3829,7 @@
         <v>25.91715049743652</v>
       </c>
       <c r="E169">
-        <v>47.60248184204102</v>
+        <v>47.602481842041023</v>
       </c>
       <c r="F169" s="2">
         <v>45439</v>
@@ -3788,7 +3838,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -3796,10 +3846,10 @@
         <v>2400014400300</v>
       </c>
       <c r="D170">
-        <v>25.91374969482422</v>
+        <v>25.913749694824219</v>
       </c>
       <c r="E170">
-        <v>47.60541915893555</v>
+        <v>47.605419158935547</v>
       </c>
       <c r="F170" s="2">
         <v>45439</v>
@@ -3808,7 +3858,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -3819,7 +3869,7 @@
         <v>25.91682052612305</v>
       </c>
       <c r="E171">
-        <v>47.59690093994141</v>
+        <v>47.596900939941413</v>
       </c>
       <c r="F171" s="2">
         <v>45439</v>
@@ -3828,7 +3878,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -3839,7 +3889,7 @@
         <v>25.91337966918945</v>
       </c>
       <c r="E172">
-        <v>47.60514831542969</v>
+        <v>47.605148315429688</v>
       </c>
       <c r="F172" s="2">
         <v>45439</v>
@@ -3848,7 +3898,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -3856,10 +3906,10 @@
         <v>2400014400320</v>
       </c>
       <c r="D173">
-        <v>25.91424942016602</v>
+        <v>25.914249420166019</v>
       </c>
       <c r="E173">
-        <v>47.61848831176758</v>
+        <v>47.618488311767578</v>
       </c>
       <c r="F173" s="2">
         <v>45439</v>
@@ -3868,7 +3918,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -3879,7 +3929,7 @@
         <v>25.90840911865234</v>
       </c>
       <c r="E174">
-        <v>47.61848068237305</v>
+        <v>47.618480682373047</v>
       </c>
       <c r="F174" s="2">
         <v>45439</v>
@@ -3888,7 +3938,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -3896,10 +3946,10 @@
         <v>2400014400320</v>
       </c>
       <c r="D175">
-        <v>25.91729927062988</v>
+        <v>25.917299270629879</v>
       </c>
       <c r="E175">
-        <v>47.61705017089844</v>
+        <v>47.617050170898438</v>
       </c>
       <c r="F175" s="2">
         <v>45439</v>
@@ -3908,7 +3958,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -3916,10 +3966,10 @@
         <v>2400014400320</v>
       </c>
       <c r="D176">
-        <v>25.92114067077637</v>
+        <v>25.921140670776371</v>
       </c>
       <c r="E176">
-        <v>47.61647033691406</v>
+        <v>47.616470336914063</v>
       </c>
       <c r="F176" s="2">
         <v>45439</v>
@@ -3928,7 +3978,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -3939,7 +3989,7 @@
         <v>25.92664909362793</v>
       </c>
       <c r="E177">
-        <v>47.61212921142578</v>
+        <v>47.612129211425781</v>
       </c>
       <c r="F177" s="2">
         <v>45439</v>
@@ -3948,7 +3998,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -3959,7 +4009,7 @@
         <v>25.11503982543945</v>
       </c>
       <c r="E178">
-        <v>47.6696891784668</v>
+        <v>47.669689178466797</v>
       </c>
       <c r="F178" s="2">
         <v>45439</v>
@@ -3968,7 +4018,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -3979,7 +4029,7 @@
         <v>25.17433929443359</v>
       </c>
       <c r="E179">
-        <v>47.25682067871094</v>
+        <v>47.256820678710938</v>
       </c>
       <c r="F179" s="2">
         <v>45439</v>
@@ -3988,7 +4038,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -3996,10 +4046,10 @@
         <v>2400022000010</v>
       </c>
       <c r="D180">
-        <v>26.32716941833496</v>
+        <v>26.327169418334961</v>
       </c>
       <c r="E180">
-        <v>47.04993057250977</v>
+        <v>47.049930572509773</v>
       </c>
       <c r="F180" s="2">
         <v>45439</v>
@@ -4008,7 +4058,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -4019,7 +4069,7 @@
         <v>26.39347076416016</v>
       </c>
       <c r="E181">
-        <v>47.03919982910156</v>
+        <v>47.039199829101563</v>
       </c>
       <c r="F181" s="2">
         <v>45439</v>
@@ -4028,7 +4078,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -4036,10 +4086,10 @@
         <v>2400022000130</v>
       </c>
       <c r="D182">
-        <v>26.37347984313965</v>
+        <v>26.373479843139648</v>
       </c>
       <c r="E182">
-        <v>47.04970932006836</v>
+        <v>47.049709320068359</v>
       </c>
       <c r="F182" s="2">
         <v>45439</v>
@@ -4048,7 +4098,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -4059,7 +4109,7 @@
         <v>26.43910980224609</v>
       </c>
       <c r="E183">
-        <v>47.0767707824707</v>
+        <v>47.076770782470703</v>
       </c>
       <c r="F183" s="2">
         <v>45439</v>
@@ -4068,7 +4118,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -4076,10 +4126,10 @@
         <v>2400022000140</v>
       </c>
       <c r="D184">
-        <v>26.42614936828613</v>
+        <v>26.426149368286129</v>
       </c>
       <c r="E184">
-        <v>47.06293869018555</v>
+        <v>47.062938690185547</v>
       </c>
       <c r="F184" s="2">
         <v>45439</v>
@@ -4088,7 +4138,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -4099,7 +4149,7 @@
         <v>26.41233062744141</v>
       </c>
       <c r="E185">
-        <v>47.07278823852539</v>
+        <v>47.072788238525391</v>
       </c>
       <c r="F185" s="2">
         <v>45439</v>
@@ -4108,7 +4158,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -4116,10 +4166,10 @@
         <v>2400022500100</v>
       </c>
       <c r="D186">
-        <v>26.15958023071289</v>
+        <v>26.159580230712891</v>
       </c>
       <c r="E186">
-        <v>47.06465148925781</v>
+        <v>47.064651489257813</v>
       </c>
       <c r="F186" s="2">
         <v>45439</v>
@@ -4128,7 +4178,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -4139,7 +4189,7 @@
         <v>26.15863037109375</v>
       </c>
       <c r="E187">
-        <v>47.07114028930664</v>
+        <v>47.071140289306641</v>
       </c>
       <c r="F187" s="2">
         <v>45439</v>
@@ -4148,7 +4198,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -4156,10 +4206,10 @@
         <v>2400022500220</v>
       </c>
       <c r="D188">
-        <v>26.43453025817871</v>
+        <v>26.434530258178711</v>
       </c>
       <c r="E188">
-        <v>47.09260940551758</v>
+        <v>47.092609405517578</v>
       </c>
       <c r="F188" s="2">
         <v>45439</v>
@@ -4168,7 +4218,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -4188,7 +4238,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -4196,10 +4246,10 @@
         <v>2400022500220</v>
       </c>
       <c r="D190">
-        <v>26.41653060913086</v>
+        <v>26.416530609130859</v>
       </c>
       <c r="E190">
-        <v>47.08840942382812</v>
+        <v>47.088409423828118</v>
       </c>
       <c r="F190" s="2">
         <v>45439</v>
@@ -4208,7 +4258,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -4219,7 +4269,7 @@
         <v>26.4251708984375</v>
       </c>
       <c r="E191">
-        <v>47.0837287902832</v>
+        <v>47.083728790283203</v>
       </c>
       <c r="F191" s="2">
         <v>45439</v>
@@ -4228,7 +4278,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -4236,10 +4286,10 @@
         <v>2400022900320</v>
       </c>
       <c r="D192">
-        <v>26.23100090026855</v>
+        <v>26.231000900268551</v>
       </c>
       <c r="E192">
-        <v>46.99280166625977</v>
+        <v>46.992801666259773</v>
       </c>
       <c r="F192" s="2">
         <v>45439</v>
@@ -4248,7 +4298,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -4256,10 +4306,10 @@
         <v>2400022900320</v>
       </c>
       <c r="D193">
-        <v>26.23212051391602</v>
+        <v>26.232120513916019</v>
       </c>
       <c r="E193">
-        <v>46.99227905273438</v>
+        <v>46.992279052734382</v>
       </c>
       <c r="F193" s="2">
         <v>45439</v>
@@ -4268,7 +4318,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -4276,10 +4326,10 @@
         <v>2400024000260</v>
       </c>
       <c r="D194">
-        <v>26.00558090209961</v>
+        <v>26.005580902099609</v>
       </c>
       <c r="E194">
-        <v>47.05224990844727</v>
+        <v>47.052249908447273</v>
       </c>
       <c r="F194" s="2">
         <v>45439</v>
@@ -4288,7 +4338,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -4296,10 +4346,10 @@
         <v>2400024000260</v>
       </c>
       <c r="D195">
-        <v>26.00808906555176</v>
+        <v>26.008089065551761</v>
       </c>
       <c r="E195">
-        <v>47.05057907104492</v>
+        <v>47.050579071044922</v>
       </c>
       <c r="F195" s="2">
         <v>45439</v>
@@ -4308,7 +4358,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -4316,10 +4366,10 @@
         <v>2400024000260</v>
       </c>
       <c r="D196">
-        <v>26.00477027893066</v>
+        <v>26.004770278930661</v>
       </c>
       <c r="E196">
-        <v>47.05297088623047</v>
+        <v>47.052970886230469</v>
       </c>
       <c r="F196" s="2">
         <v>45439</v>
@@ -4328,7 +4378,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -4336,10 +4386,10 @@
         <v>2400024000260</v>
       </c>
       <c r="D197">
-        <v>26.01074981689453</v>
+        <v>26.010749816894531</v>
       </c>
       <c r="E197">
-        <v>47.04885864257812</v>
+        <v>47.048858642578118</v>
       </c>
       <c r="F197" s="2">
         <v>45439</v>
@@ -4348,7 +4398,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -4359,7 +4409,7 @@
         <v>25.15486907958984</v>
       </c>
       <c r="E198">
-        <v>47.48564147949219</v>
+        <v>47.485641479492188</v>
       </c>
       <c r="F198" s="2">
         <v>45439</v>
@@ -4368,7 +4418,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -4376,10 +4426,10 @@
         <v>2400029000640</v>
       </c>
       <c r="D199">
-        <v>25.18254089355469</v>
+        <v>25.182540893554691</v>
       </c>
       <c r="E199">
-        <v>47.53211975097656</v>
+        <v>47.532119750976563</v>
       </c>
       <c r="F199" s="2">
         <v>45439</v>
@@ -4388,7 +4438,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -4396,10 +4446,10 @@
         <v>2400029000640</v>
       </c>
       <c r="D200">
-        <v>25.14942932128906</v>
+        <v>25.149429321289059</v>
       </c>
       <c r="E200">
-        <v>47.49401092529297</v>
+        <v>47.494010925292969</v>
       </c>
       <c r="F200" s="2">
         <v>45439</v>
@@ -4408,7 +4458,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -4416,10 +4466,10 @@
         <v>2400029000640</v>
       </c>
       <c r="D201">
-        <v>25.13808059692383</v>
+        <v>25.138080596923832</v>
       </c>
       <c r="E201">
-        <v>47.47938919067383</v>
+        <v>47.479389190673828</v>
       </c>
       <c r="F201" s="2">
         <v>45439</v>
@@ -4428,7 +4478,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -4439,7 +4489,7 @@
         <v>25.50370025634766</v>
       </c>
       <c r="E202">
-        <v>47.76424026489258</v>
+        <v>47.764240264892578</v>
       </c>
       <c r="F202" s="2">
         <v>45439</v>
@@ -4448,7 +4498,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -4456,10 +4506,10 @@
         <v>2400029200280</v>
       </c>
       <c r="D203">
-        <v>25.49114036560059</v>
+        <v>25.491140365600589</v>
       </c>
       <c r="E203">
-        <v>47.79421997070312</v>
+        <v>47.794219970703118</v>
       </c>
       <c r="F203" s="2">
         <v>45439</v>
@@ -4468,7 +4518,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -4476,10 +4526,10 @@
         <v>2400029200280</v>
       </c>
       <c r="D204">
-        <v>25.49444007873535</v>
+        <v>25.494440078735352</v>
       </c>
       <c r="E204">
-        <v>47.79615020751953</v>
+        <v>47.796150207519531</v>
       </c>
       <c r="F204" s="2">
         <v>45439</v>
@@ -4488,7 +4538,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -4496,10 +4546,10 @@
         <v>2400029200320</v>
       </c>
       <c r="D205">
-        <v>25.28552055358887</v>
+        <v>25.285520553588871</v>
       </c>
       <c r="E205">
-        <v>47.75297927856445</v>
+        <v>47.752979278564453</v>
       </c>
       <c r="F205" s="2">
         <v>45439</v>
@@ -4508,7 +4558,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -4516,10 +4566,10 @@
         <v>2400029200320</v>
       </c>
       <c r="D206">
-        <v>25.32847023010254</v>
+        <v>25.328470230102539</v>
       </c>
       <c r="E206">
-        <v>47.74848937988281</v>
+        <v>47.748489379882813</v>
       </c>
       <c r="F206" s="2">
         <v>45439</v>
@@ -4528,7 +4578,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -4539,7 +4589,7 @@
         <v>25.52610015869141</v>
       </c>
       <c r="E207">
-        <v>47.75909042358398</v>
+        <v>47.759090423583977</v>
       </c>
       <c r="F207" s="2">
         <v>45439</v>
@@ -4548,7 +4598,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -4559,7 +4609,7 @@
         <v>25.53053092956543</v>
       </c>
       <c r="E208">
-        <v>47.76005935668945</v>
+        <v>47.760059356689453</v>
       </c>
       <c r="F208" s="2">
         <v>45439</v>
@@ -4568,7 +4618,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -4576,10 +4626,10 @@
         <v>2400029200520</v>
       </c>
       <c r="D209">
-        <v>25.5190601348877</v>
+        <v>25.519060134887699</v>
       </c>
       <c r="E209">
-        <v>47.75271987915039</v>
+        <v>47.752719879150391</v>
       </c>
       <c r="F209" s="2">
         <v>45439</v>
@@ -4588,7 +4638,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -4599,7 +4649,7 @@
         <v>25.52610015869141</v>
       </c>
       <c r="E210">
-        <v>47.75902938842773</v>
+        <v>47.759029388427727</v>
       </c>
       <c r="F210" s="2">
         <v>45439</v>
@@ -4608,7 +4658,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -4616,10 +4666,10 @@
         <v>2400029200530</v>
       </c>
       <c r="D211">
-        <v>25.52585029602051</v>
+        <v>25.525850296020511</v>
       </c>
       <c r="E211">
-        <v>47.76379013061523</v>
+        <v>47.763790130615227</v>
       </c>
       <c r="F211" s="2">
         <v>45439</v>
@@ -4628,7 +4678,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -4636,10 +4686,10 @@
         <v>2400029200530</v>
       </c>
       <c r="D212">
-        <v>25.52465057373047</v>
+        <v>25.524650573730469</v>
       </c>
       <c r="E212">
-        <v>47.76160049438477</v>
+        <v>47.761600494384773</v>
       </c>
       <c r="F212" s="2">
         <v>45439</v>
@@ -4648,7 +4698,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -4659,7 +4709,7 @@
         <v>25.5235595703125</v>
       </c>
       <c r="E213">
-        <v>47.75632858276367</v>
+        <v>47.756328582763672</v>
       </c>
       <c r="F213" s="2">
         <v>45439</v>
@@ -4668,7 +4718,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -4676,10 +4726,10 @@
         <v>2400029200530</v>
       </c>
       <c r="D214">
-        <v>25.52120018005371</v>
+        <v>25.521200180053711</v>
       </c>
       <c r="E214">
-        <v>47.75495910644531</v>
+        <v>47.754959106445313</v>
       </c>
       <c r="F214" s="2">
         <v>45439</v>
@@ -4688,7 +4738,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -4696,10 +4746,10 @@
         <v>2400029200530</v>
       </c>
       <c r="D215">
-        <v>25.53145027160645</v>
+        <v>25.531450271606449</v>
       </c>
       <c r="E215">
-        <v>47.77011871337891</v>
+        <v>47.770118713378913</v>
       </c>
       <c r="F215" s="2">
         <v>45439</v>
@@ -4708,7 +4758,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -4716,10 +4766,10 @@
         <v>2400029200530</v>
       </c>
       <c r="D216">
-        <v>25.53610038757324</v>
+        <v>25.536100387573239</v>
       </c>
       <c r="E216">
-        <v>47.77462005615234</v>
+        <v>47.774620056152337</v>
       </c>
       <c r="F216" s="2">
         <v>45439</v>
@@ -4728,7 +4778,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -4736,10 +4786,10 @@
         <v>2400029200730</v>
       </c>
       <c r="D217">
-        <v>25.43094062805176</v>
+        <v>25.430940628051761</v>
       </c>
       <c r="E217">
-        <v>47.74629974365234</v>
+        <v>47.746299743652337</v>
       </c>
       <c r="F217" s="2">
         <v>45439</v>
@@ -4748,7 +4798,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -4756,10 +4806,10 @@
         <v>2400029200730</v>
       </c>
       <c r="D218">
-        <v>25.42316055297852</v>
+        <v>25.423160552978519</v>
       </c>
       <c r="E218">
-        <v>47.74581909179688</v>
+        <v>47.745819091796882</v>
       </c>
       <c r="F218" s="2">
         <v>45439</v>
@@ -4768,7 +4818,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -4776,10 +4826,10 @@
         <v>2400029200730</v>
       </c>
       <c r="D219">
-        <v>25.40041923522949</v>
+        <v>25.400419235229489</v>
       </c>
       <c r="E219">
-        <v>47.72903060913086</v>
+        <v>47.729030609130859</v>
       </c>
       <c r="F219" s="2">
         <v>45439</v>
@@ -4788,7 +4838,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -4796,10 +4846,10 @@
         <v>2400029200730</v>
       </c>
       <c r="D220">
-        <v>25.40233993530273</v>
+        <v>25.402339935302731</v>
       </c>
       <c r="E220">
-        <v>47.73178100585938</v>
+        <v>47.731781005859382</v>
       </c>
       <c r="F220" s="2">
         <v>45439</v>
@@ -4808,7 +4858,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -4816,10 +4866,10 @@
         <v>2400029200730</v>
       </c>
       <c r="D221">
-        <v>25.43592071533203</v>
+        <v>25.435920715332031</v>
       </c>
       <c r="E221">
-        <v>47.74124908447266</v>
+        <v>47.741249084472663</v>
       </c>
       <c r="F221" s="2">
         <v>45439</v>
@@ -4828,7 +4878,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -4836,10 +4886,10 @@
         <v>2400029300310</v>
       </c>
       <c r="D222">
-        <v>25.88662910461426</v>
+        <v>25.886629104614261</v>
       </c>
       <c r="E222">
-        <v>47.28570938110352</v>
+        <v>47.285709381103523</v>
       </c>
       <c r="F222" s="2">
         <v>45439</v>
@@ -4848,7 +4898,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -4856,10 +4906,10 @@
         <v>2400029300310</v>
       </c>
       <c r="D223">
-        <v>25.89257049560547</v>
+        <v>25.892570495605469</v>
       </c>
       <c r="E223">
-        <v>47.29042816162109</v>
+        <v>47.290428161621087</v>
       </c>
       <c r="F223" s="2">
         <v>45439</v>
@@ -4868,7 +4918,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -4876,10 +4926,10 @@
         <v>2400029300310</v>
       </c>
       <c r="D224">
-        <v>25.88887023925781</v>
+        <v>25.888870239257809</v>
       </c>
       <c r="E224">
-        <v>47.29561996459961</v>
+        <v>47.295619964599609</v>
       </c>
       <c r="F224" s="2">
         <v>45439</v>
@@ -4888,7 +4938,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -4896,10 +4946,10 @@
         <v>2400029300310</v>
       </c>
       <c r="D225">
-        <v>25.89353942871094</v>
+        <v>25.893539428710941</v>
       </c>
       <c r="E225">
-        <v>47.31544876098633</v>
+        <v>47.315448760986328</v>
       </c>
       <c r="F225" s="2">
         <v>45439</v>
@@ -4908,7 +4958,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -4916,10 +4966,10 @@
         <v>2400029300310</v>
       </c>
       <c r="D226">
-        <v>25.8859691619873</v>
+        <v>25.885969161987301</v>
       </c>
       <c r="E226">
-        <v>47.29867935180664</v>
+        <v>47.298679351806641</v>
       </c>
       <c r="F226" s="2">
         <v>45439</v>
@@ -4928,7 +4978,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -4939,7 +4989,7 @@
         <v>25.88212966918945</v>
       </c>
       <c r="E227">
-        <v>47.38264846801758</v>
+        <v>47.382648468017578</v>
       </c>
       <c r="F227" s="2">
         <v>45439</v>
@@ -4948,7 +4998,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -4968,7 +5018,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>7</v>
       </c>
@@ -4976,10 +5026,10 @@
         <v>2400029300540</v>
       </c>
       <c r="D229">
-        <v>25.88916969299316</v>
+        <v>25.889169692993161</v>
       </c>
       <c r="E229">
-        <v>47.39791107177734</v>
+        <v>47.397911071777337</v>
       </c>
       <c r="F229" s="2">
         <v>45439</v>
@@ -4988,7 +5038,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -4996,10 +5046,10 @@
         <v>2400029401660</v>
       </c>
       <c r="D230">
-        <v>25.46730041503906</v>
+        <v>25.467300415039059</v>
       </c>
       <c r="E230">
-        <v>47.18587875366211</v>
+        <v>47.185878753662109</v>
       </c>
       <c r="F230" s="2">
         <v>45439</v>
@@ -5008,7 +5058,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -5019,7 +5069,7 @@
         <v>25.43898963928223</v>
       </c>
       <c r="E231">
-        <v>47.18867874145508</v>
+        <v>47.188678741455078</v>
       </c>
       <c r="F231" s="2">
         <v>45439</v>
@@ -5028,7 +5078,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -5039,7 +5089,7 @@
         <v>25.43898963928223</v>
       </c>
       <c r="E232">
-        <v>47.18867874145508</v>
+        <v>47.188678741455078</v>
       </c>
       <c r="F232" s="2">
         <v>45439</v>
@@ -5048,7 +5098,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -5056,10 +5106,10 @@
         <v>2400029500230</v>
       </c>
       <c r="D233">
-        <v>25.44816017150879</v>
+        <v>25.448160171508789</v>
       </c>
       <c r="E233">
-        <v>47.25318908691406</v>
+        <v>47.253189086914063</v>
       </c>
       <c r="F233" s="2">
         <v>45439</v>
@@ -5068,7 +5118,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -5076,10 +5126,10 @@
         <v>2400029500230</v>
       </c>
       <c r="D234">
-        <v>25.45063018798828</v>
+        <v>25.450630187988281</v>
       </c>
       <c r="E234">
-        <v>47.25133895874023</v>
+        <v>47.251338958740227</v>
       </c>
       <c r="F234" s="2">
         <v>45439</v>
@@ -5088,7 +5138,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -5099,7 +5149,7 @@
         <v>25.41262054443359</v>
       </c>
       <c r="E235">
-        <v>47.22856140136719</v>
+        <v>47.228561401367188</v>
       </c>
       <c r="F235" s="2">
         <v>45439</v>
@@ -5108,7 +5158,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -5116,10 +5166,10 @@
         <v>2400029900480</v>
       </c>
       <c r="D236">
-        <v>25.7707691192627</v>
+        <v>25.770769119262699</v>
       </c>
       <c r="E236">
-        <v>47.46442031860352</v>
+        <v>47.464420318603523</v>
       </c>
       <c r="F236" s="2">
         <v>45439</v>
@@ -5128,7 +5178,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -5139,7 +5189,7 @@
         <v>25.20083045959473</v>
       </c>
       <c r="E237">
-        <v>47.73958969116211</v>
+        <v>47.739589691162109</v>
       </c>
       <c r="F237" s="2">
         <v>45439</v>
@@ -5148,7 +5198,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -5156,7 +5206,7 @@
         <v>2400030301080</v>
       </c>
       <c r="D238">
-        <v>25.2007007598877</v>
+        <v>25.200700759887699</v>
       </c>
       <c r="E238">
         <v>47.73944091796875</v>
@@ -5168,7 +5218,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -5176,10 +5226,10 @@
         <v>2400030301690</v>
       </c>
       <c r="D239">
-        <v>25.17490005493164</v>
+        <v>25.174900054931641</v>
       </c>
       <c r="E239">
-        <v>47.78218841552734</v>
+        <v>47.782188415527337</v>
       </c>
       <c r="F239" s="2">
         <v>45439</v>
@@ -5188,7 +5238,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -5196,10 +5246,10 @@
         <v>2400030301700</v>
       </c>
       <c r="D240">
-        <v>25.20158958435059</v>
+        <v>25.201589584350589</v>
       </c>
       <c r="E240">
-        <v>47.78723907470703</v>
+        <v>47.787239074707031</v>
       </c>
       <c r="F240" s="2">
         <v>45439</v>
@@ -5208,7 +5258,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -5216,10 +5266,10 @@
         <v>2400030301700</v>
       </c>
       <c r="D241">
-        <v>25.20006942749023</v>
+        <v>25.200069427490231</v>
       </c>
       <c r="E241">
-        <v>47.79899978637695</v>
+        <v>47.798999786376953</v>
       </c>
       <c r="F241" s="2">
         <v>45439</v>
@@ -5228,7 +5278,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -5248,7 +5298,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -5256,10 +5306,10 @@
         <v>2400040000110</v>
       </c>
       <c r="D243">
-        <v>25.04224014282227</v>
+        <v>25.042240142822269</v>
       </c>
       <c r="E243">
-        <v>47.30080032348633</v>
+        <v>47.300800323486328</v>
       </c>
       <c r="F243" s="2">
         <v>45439</v>
@@ -5268,7 +5318,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -5276,10 +5326,10 @@
         <v>2400040000110</v>
       </c>
       <c r="D244">
-        <v>25.03277969360352</v>
+        <v>25.032779693603519</v>
       </c>
       <c r="E244">
-        <v>47.2801399230957</v>
+        <v>47.280139923095703</v>
       </c>
       <c r="F244" s="2">
         <v>45439</v>
@@ -5288,7 +5338,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -5299,7 +5349,7 @@
         <v>22.6815299987793</v>
       </c>
       <c r="E245">
-        <v>46.42078018188477</v>
+        <v>46.420780181884773</v>
       </c>
       <c r="F245" s="2">
         <v>45439</v>
@@ -5308,7 +5358,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -5316,10 +5366,10 @@
         <v>2400050401160</v>
       </c>
       <c r="D246">
-        <v>22.68153953552246</v>
+        <v>22.681539535522461</v>
       </c>
       <c r="E246">
-        <v>46.42097091674805</v>
+        <v>46.420970916748047</v>
       </c>
       <c r="F246" s="2">
         <v>45439</v>
@@ -5328,7 +5378,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -5339,7 +5389,7 @@
         <v>24.97129058837891</v>
       </c>
       <c r="E247">
-        <v>45.69076156616211</v>
+        <v>45.690761566162109</v>
       </c>
       <c r="F247" s="2">
         <v>45439</v>
@@ -5348,7 +5398,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -5356,10 +5406,10 @@
         <v>2400069900310</v>
       </c>
       <c r="D248">
-        <v>24.97867965698242</v>
+        <v>24.978679656982418</v>
       </c>
       <c r="E248">
-        <v>45.68215942382812</v>
+        <v>45.682159423828118</v>
       </c>
       <c r="F248" s="2">
         <v>45439</v>
@@ -5368,7 +5418,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -5379,7 +5429,7 @@
         <v>24.97616004943848</v>
       </c>
       <c r="E249">
-        <v>45.68423843383789</v>
+        <v>45.684238433837891</v>
       </c>
       <c r="F249" s="2">
         <v>45439</v>
@@ -5388,7 +5438,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -5396,10 +5446,10 @@
         <v>2400071100140</v>
       </c>
       <c r="D250">
-        <v>23.59775924682617</v>
+        <v>23.597759246826168</v>
       </c>
       <c r="E250">
-        <v>45.68519973754883</v>
+        <v>45.685199737548828</v>
       </c>
       <c r="F250" s="2">
         <v>45439</v>
@@ -5408,7 +5458,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -5416,10 +5466,10 @@
         <v>2400071100140</v>
       </c>
       <c r="D251">
-        <v>23.64530944824219</v>
+        <v>23.645309448242191</v>
       </c>
       <c r="E251">
-        <v>45.63314056396484</v>
+        <v>45.633140563964837</v>
       </c>
       <c r="F251" s="2">
         <v>45439</v>
@@ -5428,7 +5478,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -5436,7 +5486,7 @@
         <v>2400071700360</v>
       </c>
       <c r="D252">
-        <v>23.74637985229492</v>
+        <v>23.746379852294918</v>
       </c>
       <c r="E252">
         <v>45.70928955078125</v>
@@ -5448,7 +5498,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -5456,10 +5506,10 @@
         <v>2400071700360</v>
       </c>
       <c r="D253">
-        <v>23.75571060180664</v>
+        <v>23.755710601806641</v>
       </c>
       <c r="E253">
-        <v>45.70592880249023</v>
+        <v>45.705928802490227</v>
       </c>
       <c r="F253" s="2">
         <v>45439</v>
@@ -5468,7 +5518,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -5476,7 +5526,7 @@
         <v>2400071700360</v>
       </c>
       <c r="D254">
-        <v>23.73753929138184</v>
+        <v>23.737539291381839</v>
       </c>
       <c r="E254">
         <v>45.7093505859375</v>
@@ -5488,7 +5538,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -5496,10 +5546,10 @@
         <v>2400080400310</v>
       </c>
       <c r="D255">
-        <v>24.76754951477051</v>
+        <v>24.767549514770511</v>
       </c>
       <c r="E255">
-        <v>47.45442962646484</v>
+        <v>47.454429626464837</v>
       </c>
       <c r="F255" s="2">
         <v>45439</v>
@@ -5508,7 +5558,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -5516,10 +5566,10 @@
         <v>2400080400310</v>
       </c>
       <c r="D256">
-        <v>24.78022956848145</v>
+        <v>24.780229568481449</v>
       </c>
       <c r="E256">
-        <v>47.46038055419922</v>
+        <v>47.460380554199219</v>
       </c>
       <c r="F256" s="2">
         <v>45439</v>
@@ -5528,7 +5578,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -5536,10 +5586,10 @@
         <v>2400117500830</v>
       </c>
       <c r="D257">
-        <v>25.29195022583008</v>
+        <v>25.291950225830082</v>
       </c>
       <c r="E257">
-        <v>46.65008926391602</v>
+        <v>46.650089263916023</v>
       </c>
       <c r="F257" s="2">
         <v>45439</v>
@@ -5548,7 +5598,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -5556,10 +5606,10 @@
         <v>2400119400660</v>
       </c>
       <c r="D258">
-        <v>26.51015090942383</v>
+        <v>26.510150909423832</v>
       </c>
       <c r="E258">
-        <v>45.77088928222656</v>
+        <v>45.770889282226563</v>
       </c>
       <c r="F258" s="2">
         <v>45439</v>
@@ -5568,7 +5618,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -5576,10 +5626,10 @@
         <v>2400119400660</v>
       </c>
       <c r="D259">
-        <v>26.47879028320312</v>
+        <v>26.478790283203121</v>
       </c>
       <c r="E259">
-        <v>45.78578948974609</v>
+        <v>45.785789489746087</v>
       </c>
       <c r="F259" s="2">
         <v>45439</v>
@@ -5588,7 +5638,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -5599,7 +5649,7 @@
         <v>26.47880935668945</v>
       </c>
       <c r="E260">
-        <v>45.78580856323242</v>
+        <v>45.785808563232422</v>
       </c>
       <c r="F260" s="2">
         <v>45439</v>
@@ -5608,7 +5658,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -5619,7 +5669,7 @@
         <v>26.53339958190918</v>
       </c>
       <c r="E261">
-        <v>45.82175064086914</v>
+        <v>45.821750640869141</v>
       </c>
       <c r="F261" s="2">
         <v>45439</v>
@@ -5628,7 +5678,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -5636,10 +5686,10 @@
         <v>2400121200910</v>
       </c>
       <c r="D262">
-        <v>26.75750923156738</v>
+        <v>26.757509231567379</v>
       </c>
       <c r="E262">
-        <v>45.74586868286133</v>
+        <v>45.745868682861328</v>
       </c>
       <c r="F262" s="2">
         <v>45439</v>
@@ -5648,7 +5698,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -5656,10 +5706,10 @@
         <v>2400121200910</v>
       </c>
       <c r="D263">
-        <v>26.50778007507324</v>
+        <v>26.507780075073239</v>
       </c>
       <c r="E263">
-        <v>45.74576187133789</v>
+        <v>45.745761871337891</v>
       </c>
       <c r="F263" s="2">
         <v>45439</v>
@@ -5668,7 +5718,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -5679,7 +5729,7 @@
         <v>22.98125076293945</v>
       </c>
       <c r="E264">
-        <v>45.29431915283203</v>
+        <v>45.294319152832031</v>
       </c>
       <c r="F264" s="2">
         <v>45439</v>
@@ -5688,7 +5738,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -5696,10 +5746,10 @@
         <v>2400135800450</v>
       </c>
       <c r="D265">
-        <v>22.60803985595703</v>
+        <v>22.608039855957031</v>
       </c>
       <c r="E265">
-        <v>45.35914993286133</v>
+        <v>45.359149932861328</v>
       </c>
       <c r="F265" s="2">
         <v>45439</v>
@@ -5708,7 +5758,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -5716,10 +5766,10 @@
         <v>2400137800390</v>
       </c>
       <c r="D266">
-        <v>24.12499046325684</v>
+        <v>24.124990463256839</v>
       </c>
       <c r="E266">
-        <v>47.65398025512695</v>
+        <v>47.653980255126953</v>
       </c>
       <c r="F266" s="2">
         <v>45439</v>
@@ -5728,7 +5778,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -5736,10 +5786,10 @@
         <v>2400137800670</v>
       </c>
       <c r="D267">
-        <v>24.2721004486084</v>
+        <v>24.272100448608398</v>
       </c>
       <c r="E267">
-        <v>47.59407043457031</v>
+        <v>47.594070434570313</v>
       </c>
       <c r="F267" s="2">
         <v>45439</v>
@@ -5748,7 +5798,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>7</v>
       </c>
@@ -5759,7 +5809,7 @@
         <v>24.25642013549805</v>
       </c>
       <c r="E268">
-        <v>47.56122970581055</v>
+        <v>47.561229705810547</v>
       </c>
       <c r="F268" s="2">
         <v>45439</v>
@@ -5768,7 +5818,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -5776,10 +5826,10 @@
         <v>2400138903360</v>
       </c>
       <c r="D269">
-        <v>26.25246047973633</v>
+        <v>26.252460479736332</v>
       </c>
       <c r="E269">
-        <v>45.83937835693359</v>
+        <v>45.839378356933587</v>
       </c>
       <c r="F269" s="2">
         <v>45439</v>
@@ -5788,7 +5838,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>7</v>
       </c>
@@ -5796,10 +5846,10 @@
         <v>2400138903360</v>
       </c>
       <c r="D270">
-        <v>26.27054023742676</v>
+        <v>26.270540237426761</v>
       </c>
       <c r="E270">
-        <v>45.83811950683594</v>
+        <v>45.838119506835938</v>
       </c>
       <c r="F270" s="2">
         <v>45439</v>
@@ -5808,7 +5858,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -5819,7 +5869,7 @@
         <v>26.15410041809082</v>
       </c>
       <c r="E271">
-        <v>46.43606948852539</v>
+        <v>46.436069488525391</v>
       </c>
       <c r="F271" s="2">
         <v>45439</v>
@@ -5828,7 +5878,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -5836,7 +5886,7 @@
         <v>2400140800460</v>
       </c>
       <c r="D272">
-        <v>22.97127914428711</v>
+        <v>22.971279144287109</v>
       </c>
       <c r="E272">
         <v>45.498779296875</v>
@@ -5848,7 +5898,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>7</v>
       </c>
@@ -5868,7 +5918,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -5876,10 +5926,10 @@
         <v>2400140800460</v>
       </c>
       <c r="D274">
-        <v>22.98103904724121</v>
+        <v>22.981039047241211</v>
       </c>
       <c r="E274">
-        <v>45.45127105712891</v>
+        <v>45.451271057128913</v>
       </c>
       <c r="F274" s="2">
         <v>45439</v>
@@ -5888,7 +5938,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -5896,10 +5946,10 @@
         <v>2400141800110</v>
       </c>
       <c r="D275">
-        <v>22.38822937011719</v>
+        <v>22.388229370117191</v>
       </c>
       <c r="E275">
-        <v>45.66563034057617</v>
+        <v>45.665630340576172</v>
       </c>
       <c r="F275" s="2">
         <v>45439</v>
@@ -5908,7 +5958,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -5916,10 +5966,10 @@
         <v>2400142401820</v>
       </c>
       <c r="D276">
-        <v>25.55645942687988</v>
+        <v>25.556459426879879</v>
       </c>
       <c r="E276">
-        <v>46.37541961669922</v>
+        <v>46.375419616699219</v>
       </c>
       <c r="F276" s="2">
         <v>45439</v>
@@ -5928,7 +5978,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -5939,7 +5989,7 @@
         <v>25.55326080322266</v>
       </c>
       <c r="E277">
-        <v>46.37271881103516</v>
+        <v>46.372718811035163</v>
       </c>
       <c r="F277" s="2">
         <v>45439</v>
@@ -5948,7 +5998,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -5956,10 +6006,10 @@
         <v>2400142401940</v>
       </c>
       <c r="D278">
-        <v>25.90958023071289</v>
+        <v>25.909580230712891</v>
       </c>
       <c r="E278">
-        <v>46.54679870605469</v>
+        <v>46.546798706054688</v>
       </c>
       <c r="F278" s="2">
         <v>45439</v>
@@ -5968,7 +6018,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -5976,10 +6026,10 @@
         <v>2400142401940</v>
       </c>
       <c r="D279">
-        <v>26.00893020629883</v>
+        <v>26.008930206298832</v>
       </c>
       <c r="E279">
-        <v>46.58884048461914</v>
+        <v>46.588840484619141</v>
       </c>
       <c r="F279" s="2">
         <v>45439</v>
@@ -5988,7 +6038,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -5996,7 +6046,7 @@
         <v>2400147200170</v>
       </c>
       <c r="D280">
-        <v>26.22723960876465</v>
+        <v>26.227239608764648</v>
       </c>
       <c r="E280">
         <v>45.703369140625</v>
@@ -6008,7 +6058,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -6016,10 +6066,10 @@
         <v>2400147602220</v>
       </c>
       <c r="D281">
-        <v>25.41175079345703</v>
+        <v>25.411750793457031</v>
       </c>
       <c r="E281">
-        <v>47.21109008789062</v>
+        <v>47.211090087890618</v>
       </c>
       <c r="F281" s="2">
         <v>45439</v>
@@ -6028,7 +6078,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>7</v>
       </c>
@@ -6036,10 +6086,10 @@
         <v>2400147602260</v>
       </c>
       <c r="D282">
-        <v>25.3541202545166</v>
+        <v>25.354120254516602</v>
       </c>
       <c r="E282">
-        <v>47.22769927978516</v>
+        <v>47.227699279785163</v>
       </c>
       <c r="F282" s="2">
         <v>45439</v>
@@ -6048,7 +6098,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -6056,10 +6106,10 @@
         <v>2400147602290</v>
       </c>
       <c r="D283">
-        <v>25.23341941833496</v>
+        <v>25.233419418334961</v>
       </c>
       <c r="E283">
-        <v>47.19441986083984</v>
+        <v>47.194419860839837</v>
       </c>
       <c r="F283" s="2">
         <v>45439</v>
@@ -6068,7 +6118,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>7</v>
       </c>
@@ -6076,10 +6126,10 @@
         <v>2400147602590</v>
       </c>
       <c r="D284">
-        <v>25.48930931091309</v>
+        <v>25.489309310913089</v>
       </c>
       <c r="E284">
-        <v>47.2029914855957</v>
+        <v>47.202991485595703</v>
       </c>
       <c r="F284" s="2">
         <v>45439</v>
@@ -6088,7 +6138,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -6099,7 +6149,7 @@
         <v>25.37313079833984</v>
       </c>
       <c r="E285">
-        <v>47.39879989624023</v>
+        <v>47.398799896240227</v>
       </c>
       <c r="F285" s="2">
         <v>45439</v>
@@ -6108,7 +6158,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -6119,7 +6169,7 @@
         <v>25.37925910949707</v>
       </c>
       <c r="E286">
-        <v>47.41114044189453</v>
+        <v>47.411140441894531</v>
       </c>
       <c r="F286" s="2">
         <v>45439</v>
@@ -6128,7 +6178,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -6136,10 +6186,10 @@
         <v>2400151300380</v>
       </c>
       <c r="D287">
-        <v>25.3393497467041</v>
+        <v>25.339349746704102</v>
       </c>
       <c r="E287">
-        <v>47.41400909423828</v>
+        <v>47.414009094238281</v>
       </c>
       <c r="F287" s="2">
         <v>45439</v>
@@ -6148,7 +6198,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -6159,7 +6209,7 @@
         <v>23.84705924987793</v>
       </c>
       <c r="E288">
-        <v>45.40562057495117</v>
+        <v>45.405620574951172</v>
       </c>
       <c r="F288" s="2">
         <v>45439</v>
@@ -6168,7 +6218,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -6176,10 +6226,10 @@
         <v>2400157600390</v>
       </c>
       <c r="D289">
-        <v>23.85391044616699</v>
+        <v>23.853910446166989</v>
       </c>
       <c r="E289">
-        <v>45.40764999389648</v>
+        <v>45.407649993896477</v>
       </c>
       <c r="F289" s="2">
         <v>45439</v>
@@ -6188,7 +6238,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -6196,10 +6246,10 @@
         <v>2400157600520</v>
       </c>
       <c r="D290">
-        <v>23.85824966430664</v>
+        <v>23.858249664306641</v>
       </c>
       <c r="E290">
-        <v>45.40816116333008</v>
+        <v>45.408161163330078</v>
       </c>
       <c r="F290" s="2">
         <v>45439</v>
@@ -6208,7 +6258,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -6216,10 +6266,10 @@
         <v>2400157600520</v>
       </c>
       <c r="D291">
-        <v>23.85485076904297</v>
+        <v>23.854850769042969</v>
       </c>
       <c r="E291">
-        <v>45.40877914428711</v>
+        <v>45.408779144287109</v>
       </c>
       <c r="F291" s="2">
         <v>45439</v>
@@ -6228,7 +6278,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>7</v>
       </c>
@@ -6236,10 +6286,10 @@
         <v>2400159000160</v>
       </c>
       <c r="D292">
-        <v>23.1717700958252</v>
+        <v>23.171770095825199</v>
       </c>
       <c r="E292">
-        <v>45.36759948730469</v>
+        <v>45.367599487304688</v>
       </c>
       <c r="F292" s="2">
         <v>45439</v>
@@ -6248,7 +6298,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -6256,10 +6306,10 @@
         <v>2400159100910</v>
       </c>
       <c r="D293">
-        <v>24.43313980102539</v>
+        <v>24.433139801025391</v>
       </c>
       <c r="E293">
-        <v>45.48654937744141</v>
+        <v>45.486549377441413</v>
       </c>
       <c r="F293" s="2">
         <v>45439</v>
@@ -6268,7 +6318,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -6276,10 +6326,10 @@
         <v>2400159100910</v>
       </c>
       <c r="D294">
-        <v>24.45701026916504</v>
+        <v>24.457010269165039</v>
       </c>
       <c r="E294">
-        <v>45.48083877563477</v>
+        <v>45.480838775634773</v>
       </c>
       <c r="F294" s="2">
         <v>45439</v>
@@ -6288,7 +6338,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -6296,10 +6346,10 @@
         <v>2400170300140</v>
       </c>
       <c r="D295">
-        <v>22.64110946655273</v>
+        <v>22.641109466552731</v>
       </c>
       <c r="E295">
-        <v>46.77347946166992</v>
+        <v>46.773479461669922</v>
       </c>
       <c r="F295" s="2">
         <v>45439</v>
@@ -6308,7 +6358,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -6319,7 +6369,7 @@
         <v>22.6408805847168</v>
       </c>
       <c r="E296">
-        <v>46.76604843139648</v>
+        <v>46.766048431396477</v>
       </c>
       <c r="F296" s="2">
         <v>45439</v>
@@ -6328,7 +6378,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -6336,10 +6386,10 @@
         <v>2400170300140</v>
       </c>
       <c r="D297">
-        <v>22.63973999023438</v>
+        <v>22.639739990234379</v>
       </c>
       <c r="E297">
-        <v>46.77167892456055</v>
+        <v>46.771678924560547</v>
       </c>
       <c r="F297" s="2">
         <v>45439</v>
@@ -6348,7 +6398,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -6359,7 +6409,7 @@
         <v>22.64619064331055</v>
       </c>
       <c r="E298">
-        <v>46.76309967041016</v>
+        <v>46.763099670410163</v>
       </c>
       <c r="F298" s="2">
         <v>45439</v>
@@ -6368,7 +6418,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -6379,7 +6429,7 @@
         <v>22.65587043762207</v>
       </c>
       <c r="E299">
-        <v>46.75428009033203</v>
+        <v>46.754280090332031</v>
       </c>
       <c r="F299" s="2">
         <v>45439</v>
@@ -6388,7 +6438,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -6396,10 +6446,10 @@
         <v>2400170300220</v>
       </c>
       <c r="D300">
-        <v>22.64189910888672</v>
+        <v>22.641899108886719</v>
       </c>
       <c r="E300">
-        <v>46.76551055908203</v>
+        <v>46.765510559082031</v>
       </c>
       <c r="F300" s="2">
         <v>45439</v>
@@ -6408,7 +6458,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -6419,7 +6469,7 @@
         <v>22.65818023681641</v>
       </c>
       <c r="E301">
-        <v>46.74874114990234</v>
+        <v>46.748741149902337</v>
       </c>
       <c r="F301" s="2">
         <v>45439</v>
@@ -6428,7 +6478,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -6436,10 +6486,10 @@
         <v>2400170300270</v>
       </c>
       <c r="D302">
-        <v>22.64167976379395</v>
+        <v>22.641679763793949</v>
       </c>
       <c r="E302">
-        <v>46.67842864990234</v>
+        <v>46.678428649902337</v>
       </c>
       <c r="F302" s="2">
         <v>45439</v>
@@ -6448,7 +6498,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -6459,7 +6509,7 @@
         <v>22.65785026550293</v>
       </c>
       <c r="E303">
-        <v>46.68442153930664</v>
+        <v>46.684421539306641</v>
       </c>
       <c r="F303" s="2">
         <v>45439</v>
@@ -6468,7 +6518,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -6476,10 +6526,10 @@
         <v>2400170300270</v>
       </c>
       <c r="D304">
-        <v>22.66460990905762</v>
+        <v>22.664609909057621</v>
       </c>
       <c r="E304">
-        <v>46.68899917602539</v>
+        <v>46.688999176025391</v>
       </c>
       <c r="F304" s="2">
         <v>45439</v>
@@ -6488,7 +6538,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -6499,7 +6549,7 @@
         <v>22.60637092590332</v>
       </c>
       <c r="E305">
-        <v>46.75344848632812</v>
+        <v>46.753448486328118</v>
       </c>
       <c r="F305" s="2">
         <v>45439</v>
@@ -6508,7 +6558,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -6519,7 +6569,7 @@
         <v>22.59346961975098</v>
       </c>
       <c r="E306">
-        <v>46.76166152954102</v>
+        <v>46.761661529541023</v>
       </c>
       <c r="F306" s="2">
         <v>45439</v>
@@ -6528,7 +6578,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -6536,10 +6586,10 @@
         <v>2400170300430</v>
       </c>
       <c r="D307">
-        <v>22.55962944030762</v>
+        <v>22.559629440307621</v>
       </c>
       <c r="E307">
-        <v>46.78181076049805</v>
+        <v>46.781810760498047</v>
       </c>
       <c r="F307" s="2">
         <v>45439</v>
@@ -6548,7 +6598,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -6556,10 +6606,10 @@
         <v>2400170300430</v>
       </c>
       <c r="D308">
-        <v>22.59729957580566</v>
+        <v>22.597299575805661</v>
       </c>
       <c r="E308">
-        <v>46.75777053833008</v>
+        <v>46.757770538330078</v>
       </c>
       <c r="F308" s="2">
         <v>45439</v>
@@ -6568,7 +6618,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -6576,10 +6626,10 @@
         <v>2400170800690</v>
       </c>
       <c r="D309">
-        <v>24.38157081604004</v>
+        <v>24.381570816040039</v>
       </c>
       <c r="E309">
-        <v>45.52787017822266</v>
+        <v>45.527870178222663</v>
       </c>
       <c r="F309" s="2">
         <v>45439</v>
@@ -6588,7 +6638,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -6596,10 +6646,10 @@
         <v>2400170800690</v>
       </c>
       <c r="D310">
-        <v>24.38150024414062</v>
+        <v>24.381500244140621</v>
       </c>
       <c r="E310">
-        <v>45.52793121337891</v>
+        <v>45.527931213378913</v>
       </c>
       <c r="F310" s="2">
         <v>45439</v>
@@ -6608,7 +6658,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -6616,7 +6666,7 @@
         <v>2400181500380</v>
       </c>
       <c r="D311">
-        <v>25.29145050048828</v>
+        <v>25.291450500488281</v>
       </c>
       <c r="E311">
         <v>45.4197998046875</v>
@@ -6628,7 +6678,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -6639,7 +6689,7 @@
         <v>25.29966926574707</v>
       </c>
       <c r="E312">
-        <v>45.41110992431641</v>
+        <v>45.411109924316413</v>
       </c>
       <c r="F312" s="2">
         <v>45439</v>
@@ -6648,7 +6698,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -6656,10 +6706,10 @@
         <v>2400191300150</v>
       </c>
       <c r="D313">
-        <v>22.86943054199219</v>
+        <v>22.869430541992191</v>
       </c>
       <c r="E313">
-        <v>46.57783889770508</v>
+        <v>46.577838897705078</v>
       </c>
       <c r="F313" s="2">
         <v>45439</v>
@@ -6668,7 +6718,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -6676,10 +6726,10 @@
         <v>2400677701070</v>
       </c>
       <c r="D314">
-        <v>26.47332000732422</v>
+        <v>26.473320007324219</v>
       </c>
       <c r="E314">
-        <v>45.79029083251953</v>
+        <v>45.790290832519531</v>
       </c>
       <c r="F314" s="2">
         <v>45439</v>
@@ -6688,7 +6738,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -6696,10 +6746,10 @@
         <v>2400677701070</v>
       </c>
       <c r="D315">
-        <v>26.4495792388916</v>
+        <v>26.449579238891602</v>
       </c>
       <c r="E315">
-        <v>45.79885864257812</v>
+        <v>45.798858642578118</v>
       </c>
       <c r="F315" s="2">
         <v>45439</v>
@@ -6708,7 +6758,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -6716,10 +6766,10 @@
         <v>2400677701180</v>
       </c>
       <c r="D316">
-        <v>26.4495792388916</v>
+        <v>26.449579238891602</v>
       </c>
       <c r="E316">
-        <v>45.79885864257812</v>
+        <v>45.798858642578118</v>
       </c>
       <c r="F316" s="2">
         <v>45439</v>
@@ -6728,7 +6778,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>7</v>
       </c>
@@ -6736,10 +6786,10 @@
         <v>2400677701180</v>
       </c>
       <c r="D317">
-        <v>26.47332000732422</v>
+        <v>26.473320007324219</v>
       </c>
       <c r="E317">
-        <v>45.79029083251953</v>
+        <v>45.790290832519531</v>
       </c>
       <c r="F317" s="2">
         <v>45439</v>
